--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -510,22 +510,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G2" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>1.6</v>
@@ -534,7 +534,7 @@
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
@@ -545,39 +545,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="G3" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
         <v>7.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="4">
@@ -588,39 +588,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -635,26 +635,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="I5" t="n">
         <v>1.8</v>
@@ -663,7 +663,7 @@
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6">
@@ -678,23 +678,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
         <v>8.1</v>
@@ -721,35 +721,35 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
         <v>5.8</v>
       </c>
       <c r="H7" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
         <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G8" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H8" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K8" t="n">
         <v>2.9</v>
@@ -807,29 +807,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0.5</v>
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.4</v>
+        <v>23.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11">
@@ -889,39 +889,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.5</v>
+        <v>24.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="H11" t="n">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12">
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28.1</v>
+        <v>25</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J12" t="n">
         <v>0.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="H13" t="n">
-        <v>8.699999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.1</v>
+        <v>27.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H16" t="n">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
@@ -1194,26 +1194,26 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I18" t="n">
         <v>1.9</v>
@@ -1222,7 +1222,7 @@
         <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H19" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="20">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="H20" t="n">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
@@ -1323,35 +1323,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="H21" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J21" t="n">
         <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1370,31 +1370,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="I22" t="n">
         <v>2.1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1413,28 +1413,28 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="H23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K23" t="n">
         <v>3.2</v>
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.5</v>
+        <v>24.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
         <v>1.9</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="25">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1504,23 +1504,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>86.9</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>2.9</v>
       </c>
       <c r="G25" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
         <v>2.9</v>
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.5</v>
+        <v>26.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="G26" t="n">
         <v>6.7</v>
       </c>
       <c r="H26" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="27">
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.8</v>
+        <v>23.7</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.1</t>
+          <t>86.4</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>2.9</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28">
@@ -1624,20 +1624,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>86.7</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
         <v>6.9</v>
@@ -1649,10 +1649,10 @@
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="29">
@@ -1667,35 +1667,35 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H29" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
         <v>0.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="30">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85.5</t>
+          <t>84.9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1729,16 +1729,16 @@
         <v>6.6</v>
       </c>
       <c r="H30" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
         <v>0.7</v>
       </c>
       <c r="K30" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1753,35 +1753,35 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86.2</t>
+          <t>86.6</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3.7</v>
       </c>
       <c r="G31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J31" t="n">
         <v>0.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -1868,30 +1868,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
         <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
         <v>1.2</v>
@@ -1911,39 +1911,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -1958,26 +1958,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.8</v>
+        <v>20.9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.3</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.9</v>
@@ -1986,7 +1986,7 @@
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.9</v>
+        <v>23.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>79.1</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H5" t="n">
         <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="H6" t="n">
         <v>5.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -2083,15 +2083,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2100,22 +2100,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>5.9</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I7" t="n">
         <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -2130,26 +2130,26 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
         <v>1.5</v>
@@ -2158,7 +2158,7 @@
         <v>0.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.1</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
         <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -2259,16 +2259,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2278,7 +2278,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
         <v>1.5</v>
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
         <v>0.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -2345,16 +2345,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.6</t>
+          <t>85.5</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2367,7 +2367,7 @@
         <v>5.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
         <v>0.5</v>
@@ -2384,15 +2384,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.5</v>
+        <v>24.6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2401,22 +2401,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K14" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
@@ -2431,23 +2431,23 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H15" t="n">
         <v>5.3</v>
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="G16" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H16" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.8</v>
+        <v>22.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.1</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G17" t="n">
         <v>6.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
         <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18">
@@ -2556,39 +2556,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
         <v>6.5</v>
       </c>
       <c r="H19" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20">
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2689,29 +2689,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>84.5</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H21" t="n">
         <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
         <v>0.6</v>
@@ -2732,26 +2732,26 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
         <v>6.6</v>
       </c>
       <c r="H22" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I22" t="n">
         <v>1.6</v>
@@ -2760,7 +2760,7 @@
         <v>0.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24">
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2827,26 +2827,26 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>3.5</v>
       </c>
       <c r="G24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="G25" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
         <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="G26" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="H26" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J26" t="n">
         <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25.7</v>
+        <v>23.5</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="G27" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="H27" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H28" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="29">
@@ -3029,39 +3029,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I29" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
         <v>0.7</v>
       </c>
       <c r="K29" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="30">
@@ -3080,25 +3080,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>4.1</v>
       </c>
       <c r="G30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H30" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J30" t="n">
         <v>0.8</v>
@@ -3119,11 +3119,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -3238,32 +3238,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>3.2</v>
@@ -3281,32 +3281,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
         <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -3324,11 +3324,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3343,10 +3343,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J4" t="n">
         <v>0.7</v>
@@ -3363,39 +3363,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.6</v>
+        <v>20.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -3406,39 +3406,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.9</v>
+        <v>23.7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.3</v>
+        <v>22.3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -3535,27 +3535,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>20.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.5</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>4.6</v>
@@ -3564,10 +3564,10 @@
         <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.9</v>
+        <v>22.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>87.3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3625,35 +3625,35 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
         <v>7.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
         <v>0.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -3664,39 +3664,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13">
@@ -3707,33 +3707,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>75.2</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
         <v>0.6</v>
@@ -3750,36 +3750,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K14" t="n">
         <v>2.7</v>
@@ -3793,39 +3793,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="16">
@@ -3840,35 +3840,35 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>2.8</v>
       </c>
       <c r="G16" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
@@ -3883,16 +3883,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3902,10 +3902,10 @@
         <v>7.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
@@ -3969,16 +3969,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.2</t>
+          <t>85.6</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3988,7 +3988,7 @@
         <v>6.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>2.1</v>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4021,26 +4021,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
         <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="21">
@@ -4059,28 +4059,28 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I21" t="n">
         <v>2.3</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>2.6</v>
@@ -4098,35 +4098,35 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I22" t="n">
         <v>1.8</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -4137,30 +4137,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26.4</v>
+        <v>23.9</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="I23" t="n">
         <v>1.7</v>
@@ -4169,7 +4169,7 @@
         <v>0.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24">
@@ -4180,36 +4180,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.6</v>
+        <v>26.6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K24" t="n">
         <v>2.7</v>
@@ -4223,39 +4223,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G25" t="n">
         <v>8.6</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -4266,39 +4266,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.5</v>
+        <v>24.6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G26" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="27">
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28">
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J28" t="n">
         <v>0.8</v>
       </c>
       <c r="K28" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -4395,39 +4395,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J29" t="n">
         <v>0.9</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="30">
@@ -4438,39 +4438,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25.2</v>
+        <v>23.7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G30" t="n">
         <v>7.8</v>
       </c>
       <c r="H30" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -4481,39 +4481,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G31" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I31" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
         <v>0.8</v>
       </c>
       <c r="K31" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -4604,35 +4604,35 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>1.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
@@ -4647,35 +4647,35 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
         <v>1.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -4686,39 +4686,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.9</v>
+        <v>21.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.5</t>
+          <t>74.4</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>10.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.8</v>
+        <v>20.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>72.4</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>10.7</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4772,39 +4772,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
         <v>10.7</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -4815,39 +4815,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>72.9</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>9.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J8" t="n">
         <v>1.4</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9">
@@ -4901,36 +4901,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.4</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>10.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>2.9</v>
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.4</t>
+          <t>73.8</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.9</v>
+        <v>21.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.6</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
         <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="J12" t="n">
         <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
@@ -5163,35 +5163,35 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>1.8</v>
       </c>
       <c r="J15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -5202,36 +5202,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.5</v>
+        <v>23.7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
@@ -5249,16 +5249,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5277,7 +5277,7 @@
         <v>1.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="18">
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>11.8</v>
+        <v>11.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>10.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -5425,31 +5425,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J21" t="n">
         <v>1.2</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I22" t="n">
         <v>1.4</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -5511,31 +5511,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>9.4</v>
+        <v>10.9</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.3</v>
+        <v>23.4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="25">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5597,31 +5597,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>9.300000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="26">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -5640,25 +5640,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>11.5</v>
+        <v>10.1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -5675,39 +5675,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.6</v>
+        <v>22.9</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
       <c r="H27" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J27" t="n">
         <v>1.7</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.3</v>
-      </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28">
@@ -5722,29 +5722,29 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.2</v>
@@ -5769,19 +5769,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
@@ -5790,7 +5790,7 @@
         <v>1.4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K29" t="n">
         <v>2.1</v>
@@ -5808,35 +5808,35 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="H30" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J30" t="n">
         <v>1.2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">
@@ -5851,35 +5851,35 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="H31" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J31" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K31" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -5966,39 +5966,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
@@ -6009,36 +6009,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G3" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K3" t="n">
         <v>3.1</v>
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>75.4</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G4" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.9</v>
+        <v>20</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.4</t>
+          <t>75.2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K5" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -6138,36 +6138,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.5</v>
+        <v>18.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>13.5</v>
+        <v>14.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="n">
         <v>2.8</v>
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.6</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -6228,32 +6228,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0.9</v>
       </c>
       <c r="G8" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="n">
         <v>2.4</v>
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10">
@@ -6310,36 +6310,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.1</v>
+        <v>19.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="G10" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>2.6</v>
@@ -6361,31 +6361,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.4</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.8</v>
+        <v>18</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68.1</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="G12" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>12.2</v>
+        <v>14.2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
         <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -6486,26 +6486,26 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
         <v>1.3</v>
@@ -6514,7 +6514,7 @@
         <v>1.9</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69.1</t>
+          <t>68.1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="G15" t="n">
-        <v>15.1</v>
+        <v>13.7</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="16">
@@ -6572,35 +6572,35 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J16" t="n">
         <v>1.9</v>
       </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="17">
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19.4</v>
+        <v>21.7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>74.6</t>
+          <t>67.1</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -6658,35 +6658,35 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="J18" t="n">
         <v>1.8</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.8</v>
+        <v>22.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>68.6</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
@@ -6783,36 +6783,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20.7</v>
+        <v>22.6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>14.2</v>
+        <v>11.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K21" t="n">
         <v>2.4</v>
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.5</v>
+        <v>20.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>64.5</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>14.2</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18.2</v>
+        <v>21.9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>12.8</v>
+        <v>15.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25">
@@ -6955,39 +6955,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.1</v>
+        <v>23.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="26">
@@ -6998,20 +6998,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20.9</v>
+        <v>21.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7021,13 +7021,13 @@
         <v>14.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
@@ -7041,36 +7041,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22.3</v>
+        <v>20.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="K27" t="n">
         <v>2.2</v>
@@ -7088,35 +7088,35 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>70.3</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>1.3</v>
       </c>
       <c r="G28" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
         <v>1.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K28" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29">
@@ -7127,39 +7127,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>69.1</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G29" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
@@ -7170,39 +7170,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G30" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="H30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31">
@@ -7217,16 +7217,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>66.5</t>
+          <t>67.6</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7236,16 +7236,16 @@
         <v>16.1</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K31" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -592,26 +592,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
         <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I4" t="n">
         <v>2.5</v>
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -651,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
         <v>7.9</v>
@@ -678,20 +678,20 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
         <v>6.2</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>81.9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -811,31 +811,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10">
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.1</v>
+        <v>24.9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -889,39 +889,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24.6</v>
+        <v>23.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.9</v>
+        <v>27.4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27.4</v>
+        <v>23.2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1069,31 +1069,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -1104,15 +1104,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1121,22 +1121,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="H16" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="I16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="H17" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.9</v>
+        <v>24.1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19">
@@ -1241,16 +1241,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G19" t="n">
         <v>6.2</v>
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="H20" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21">
@@ -1319,30 +1319,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I21" t="n">
         <v>1.9</v>
@@ -1351,7 +1351,7 @@
         <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="22">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.5</v>
+        <v>26.4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26">
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26.4</v>
+        <v>24.5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G26" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.4</t>
+          <t>86.2</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>85.8</t>
+          <t>86.9</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G28" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="H28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="29">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1689,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
         <v>0.5</v>
@@ -1710,11 +1710,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G30" t="n">
         <v>6.6</v>
@@ -1915,16 +1915,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1934,7 +1934,7 @@
         <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
         <v>1.3</v>
@@ -1958,26 +1958,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.1</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>1.9</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.1</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2020,7 +2020,7 @@
         <v>6.7</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="H7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.6</v>
+        <v>23.3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="n">
         <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.4</v>
+        <v>23.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>85.5</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
         <v>5.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.5</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
         <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14">
@@ -2384,39 +2384,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.6</v>
+        <v>22.3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
         <v>1.6</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="15">
@@ -2427,20 +2427,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2450,16 +2450,16 @@
         <v>6.6</v>
       </c>
       <c r="H15" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="I15" t="n">
         <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J16" t="n">
         <v>0.8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
         <v>6.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="I17" t="n">
         <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18">
@@ -2560,23 +2560,23 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H18" t="n">
         <v>5.8</v>
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.1</v>
+        <v>22.3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H19" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H20" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.6</v>
+        <v>23.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.5</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H26" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H27" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J27" t="n">
         <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G28" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K28" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
@@ -3033,26 +3033,26 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="H29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
         <v>2.2</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,14 +3128,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.8</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3.5</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="H31" t="n">
         <v>5.3</v>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K31" t="n">
         <v>3.1</v>
@@ -3234,39 +3234,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.9</v>
+        <v>20.3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
@@ -3277,39 +3277,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.4</v>
+        <v>22.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3328,31 +3328,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -3363,39 +3363,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.6</v>
+        <v>22.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G5" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.3</v>
+        <v>20.6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -3539,32 +3539,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.4</v>
+        <v>21.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.3</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11">
@@ -3621,20 +3621,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>87.3</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3644,16 +3644,16 @@
         <v>7.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3664,36 +3664,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.1</v>
+        <v>22.9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
         <v>1.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.7</v>
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>21.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.2</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="n">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14">
@@ -3750,39 +3750,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -3793,36 +3793,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="n">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K15" t="n">
         <v>2.7</v>
@@ -3836,36 +3836,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
         <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K16" t="n">
         <v>2.7</v>
@@ -3879,36 +3879,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>85.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="19">
@@ -3965,39 +3965,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.6</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.2</v>
+        <v>22.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
         <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
         <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -4141,26 +4141,26 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G23" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
         <v>1.7</v>
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26.6</v>
+        <v>23.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G24" t="n">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="25">
@@ -4223,39 +4223,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.7</v>
+        <v>26.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="26">
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.3</v>
+        <v>23.7</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H28" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4403,31 +4403,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K29" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4438,39 +4438,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>81.7</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G30" t="n">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
         <v>1.9</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="31">
@@ -4604,26 +4604,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>69.6</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>1.3</v>
@@ -4651,22 +4651,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>1.6</v>
@@ -4733,11 +4733,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -4746,10 +4746,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -4758,7 +4758,7 @@
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -4819,11 +4819,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4835,7 +4835,7 @@
         <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H7" t="n">
         <v>4.4</v>
@@ -5163,16 +5163,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5206,11 +5206,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -5265,7 +5265,7 @@
         <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="H17" t="n">
         <v>4.1</v>
@@ -5331,36 +5331,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>9.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>11.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I21" t="n">
         <v>2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.6</v>
       </c>
       <c r="J21" t="n">
         <v>1.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>9.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>10.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J25" t="n">
         <v>1.4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="26">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="G26" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27">
@@ -5722,23 +5722,23 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="H28" t="n">
         <v>4.5</v>
@@ -5808,16 +5808,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -5833,10 +5833,10 @@
         <v>1.9</v>
       </c>
       <c r="J30" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>75.2</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.2</v>
       </c>
       <c r="G3" t="n">
-        <v>14.7</v>
+        <v>13.6</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
         <v>1.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4">
@@ -6052,30 +6052,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.4</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
         <v>1.4</v>
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.2</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="n">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.8</v>
+        <v>17.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>14.4</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17.9</v>
+        <v>19</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>14.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.7</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -6443,11 +6443,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -6456,22 +6456,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G13" t="n">
         <v>14.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.1</v>
+        <v>22.6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.2</v>
       </c>
-      <c r="G14" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.9</v>
+        <v>21.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.1</t>
+          <t>67.1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16">
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.7</v>
+        <v>20.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>67.1</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>12.3</v>
+        <v>15.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J17" t="n">
         <v>1.8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18">
@@ -6654,36 +6654,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20.6</v>
+        <v>22.2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>15.3</v>
+        <v>11.7</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K18" t="n">
         <v>2.4</v>
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.2</v>
+        <v>21.1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I19" t="n">
         <v>1.3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20">
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.7</v>
+        <v>22.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J20" t="n">
         <v>1.5</v>
       </c>
-      <c r="G20" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.4</v>
-      </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="G21" t="n">
-        <v>11.8</v>
+        <v>14.2</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
         <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="22">
@@ -6830,16 +6830,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>77.7</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6916,16 +6916,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7002,23 +7002,23 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G26" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="H26" t="n">
         <v>4.5</v>
@@ -7027,7 +7027,7 @@
         <v>1.6</v>
       </c>
       <c r="J26" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
@@ -7092,12 +7092,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7107,13 +7107,13 @@
         <v>16.2</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>2.6</v>
@@ -7131,7 +7131,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>69.1</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7150,7 +7150,7 @@
         <v>15.5</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I29" t="n">
         <v>1.6</v>
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -7226,17 +7226,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>67.6</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>1.3</v>
       </c>
       <c r="G31" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
         <v>1.8</v>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -506,11 +506,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -528,13 +528,13 @@
         <v>8.699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -631,39 +631,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.7</v>
+        <v>21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H5" t="n">
-        <v>7.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.8</v>
+        <v>22.7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H6" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7">
@@ -717,39 +717,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.1</v>
+        <v>23.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
@@ -803,39 +803,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.2</v>
+        <v>24.9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="H9" t="n">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.9</v>
+        <v>23.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11">
@@ -889,39 +889,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.3</v>
+        <v>24.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H11" t="n">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12">
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H12" t="n">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27.4</v>
+        <v>23.2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="H15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.3</v>
+        <v>27.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.1</v>
+        <v>24.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="H20" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
@@ -1319,30 +1319,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H21" t="n">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.9</v>
@@ -1351,7 +1351,7 @@
         <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1431,7 +1431,7 @@
         <v>7.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J23" t="n">
         <v>0.8</v>
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>86.2</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>7.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27">
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.2</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="H27" t="n">
-        <v>9.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.1</v>
+        <v>26.8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>86.9</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="G28" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="29">
@@ -1663,39 +1663,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26.8</v>
+        <v>24.4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>86.9</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K29" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="30">
@@ -1710,26 +1710,26 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.9</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G30" t="n">
         <v>6.6</v>
       </c>
       <c r="H30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I30" t="n">
         <v>2.4</v>
@@ -1738,7 +1738,7 @@
         <v>0.7</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="31">
@@ -1872,16 +1872,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1897,7 +1897,7 @@
         <v>1.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
         <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
         <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
         <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.5</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
         <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H16" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="G17" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
         <v>0.8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18">
@@ -2556,11 +2556,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2569,23 +2569,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K18" t="n">
         <v>2.7</v>
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.5</v>
+        <v>23.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G23" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -2818,11 +2818,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2913,14 +2913,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H26" t="n">
         <v>6</v>
@@ -2932,7 +2932,7 @@
         <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
         <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G28" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J28" t="n">
         <v>0.7</v>
       </c>
       <c r="K28" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="29">
@@ -3281,11 +3281,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3297,7 +3297,7 @@
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
@@ -3309,7 +3309,7 @@
         <v>0.7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -3363,39 +3363,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.1</v>
+        <v>23.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">
@@ -3406,39 +3406,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.7</v>
+        <v>20.6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.6</v>
+        <v>22.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -3578,27 +3578,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.1</v>
+        <v>22.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
         <v>4.1</v>
@@ -3607,10 +3607,10 @@
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -3664,39 +3664,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.9</v>
+        <v>22.1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
         <v>1.6</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="13">
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.7</v>
+        <v>21</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
         <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H20" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
         <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4051,39 +4051,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21.7</v>
+        <v>22.6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="G21" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="H22" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="23">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4246,7 +4246,7 @@
         <v>7.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>1.7</v>
@@ -4270,16 +4270,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>77.8</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4289,7 +4289,7 @@
         <v>7.7</v>
       </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I26" t="n">
         <v>1.7</v>
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="28">
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
         <v>1.9</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K28" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29">
@@ -4438,39 +4438,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H30" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4494,26 +4494,26 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G31" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="H31" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K31" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -4686,36 +4686,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.4</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
         <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.4</v>
+        <v>21.5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.4</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.5</v>
+        <v>10.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -4772,39 +4772,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.5</v>
+        <v>20.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>72.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>10.7</v>
+        <v>8.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>10.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>9.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.6</v>
+        <v>21.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>73.8</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
         <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.6</v>
+        <v>22.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.2</v>
+        <v>23.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>10.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>21.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
         <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
@@ -5159,36 +5159,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.8</v>
+        <v>23.2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>9.9</v>
+        <v>11.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>2.8</v>
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>11.1</v>
+        <v>10.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J18" t="n">
         <v>1.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
       <c r="K18" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>10.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="20">
@@ -5374,36 +5374,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>9.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>10.9</v>
+        <v>11.7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>73.4</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>11.7</v>
+        <v>9.4</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
         <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.7</v>
+        <v>22.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>10.1</v>
+        <v>11.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5695,7 +5695,7 @@
         <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>4.2</v>
@@ -5808,7 +5808,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -5817,14 +5817,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="H30" t="n">
         <v>4.7</v>
@@ -6017,12 +6017,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.2</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -6032,7 +6032,7 @@
         <v>13.6</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I3" t="n">
         <v>1.3</v>
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G4" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.3</v>
+        <v>17.8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>15.4</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -6138,36 +6138,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.8</v>
+        <v>21.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>14.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
@@ -6271,35 +6271,35 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
         <v>1.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -6314,35 +6314,35 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74.1</t>
+          <t>74.2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>1.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="G11" t="n">
-        <v>14.4</v>
+        <v>13.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>13.6</v>
+        <v>14.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>67.1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.5</v>
+        <v>22.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.1</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.2</v>
       </c>
-      <c r="G15" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.8</v>
+        <v>20.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G16" t="n">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J16" t="n">
         <v>1.8</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.9</v>
-      </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
@@ -6611,36 +6611,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20.6</v>
+        <v>22.2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="n">
-        <v>15.3</v>
+        <v>11.7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K17" t="n">
         <v>2.4</v>
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="n">
-        <v>11.7</v>
+        <v>14.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="19">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.7</v>
+        <v>23.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G21" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="22">
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.9</v>
+        <v>22.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G23" t="n">
         <v>14.2</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="24">
@@ -6998,39 +6998,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.1</v>
+        <v>20.6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G26" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="27">
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20.6</v>
+        <v>22.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="28">
@@ -7088,29 +7088,29 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>1.3</v>
       </c>
       <c r="G28" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H28" t="n">
         <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -7135,31 +7135,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>74.2</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G29" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="H29" t="n">
         <v>4.4</v>
       </c>
       <c r="I29" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="30">
@@ -7170,39 +7170,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="31">
@@ -7217,23 +7217,23 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>1.3</v>
       </c>
       <c r="G31" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="H31" t="n">
         <v>4.2</v>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -601,11 +601,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
         <v>5.8</v>
@@ -620,7 +620,7 @@
         <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
@@ -631,39 +631,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22.8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
-        <v>9.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6">
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.7</v>
+        <v>21</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
-        <v>7.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
         <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -725,12 +725,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -740,10 +740,10 @@
         <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
         <v>0.3</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
         <v>5.9</v>
@@ -803,39 +803,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24.9</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10">
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="n">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11">
@@ -889,36 +889,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.4</v>
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H12" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
         <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.2</v>
+        <v>24.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.5</v>
+        <v>27.1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
         <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1087,13 +1087,13 @@
         <v>8.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27.1</v>
+        <v>24.2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="H17" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.9</v>
+        <v>23.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -1233,15 +1233,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H19" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="20">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>25.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="21">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G21" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="I21" t="n">
         <v>1.9</v>
@@ -1351,7 +1351,7 @@
         <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="22">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1385,7 +1385,7 @@
         <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="I22" t="n">
         <v>2.1</v>
@@ -1394,7 +1394,7 @@
         <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="23">
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1471,7 +1471,7 @@
         <v>6.8</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="I24" t="n">
         <v>1.9</v>
@@ -1495,23 +1495,23 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H25" t="n">
         <v>8.199999999999999</v>
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>86.2</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
-        <v>9.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1585,31 +1585,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>85.9</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>7.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28">
@@ -1753,29 +1753,29 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86.6</t>
+          <t>86.5</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3.7</v>
       </c>
       <c r="G31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H31" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
         <v>0.6</v>
@@ -1868,39 +1868,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3">
@@ -1911,39 +1911,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.5</v>
+        <v>20.6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H3" t="n">
         <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.8</v>
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G4" t="n">
         <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="J4" t="n">
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.4</v>
+        <v>22.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.6</v>
+        <v>23.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
         <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="n">
         <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.1</v>
+        <v>22.3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H13" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="14">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2392,31 +2392,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.9</v>
+        <v>24.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H15" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
         <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.5</v>
+        <v>23.1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>3.2</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="I17" t="n">
         <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2556,39 +2556,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
         <v>5.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="19">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.3</v>
+        <v>23.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
         <v>6.7</v>
       </c>
       <c r="H19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J19" t="n">
         <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>3.7</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G21" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="I21" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="H22" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
         <v>6.3</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
         <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G24" t="n">
         <v>6.3</v>
       </c>
       <c r="H24" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.5</v>
+        <v>24.9</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G27" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H27" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="28">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G28" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H28" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J28" t="n">
         <v>0.7</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3046,13 +3046,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G29" t="n">
         <v>7.5</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I29" t="n">
         <v>2.2</v>
@@ -3061,7 +3061,7 @@
         <v>0.7</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="30">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>81.7</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3141,10 +3141,10 @@
         <v>5.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K31" t="n">
         <v>3.1</v>
@@ -3238,20 +3238,20 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
         <v>7.9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3343,7 +3343,7 @@
         <v>7.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.8</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3475,7 +3475,7 @@
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
         <v>0.4</v>
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
         <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3535,39 +3535,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.6</v>
+        <v>20.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.4</v>
+        <v>21</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.3</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
@@ -3707,27 +3707,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>22.6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
@@ -3736,10 +3736,10 @@
         <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -3797,11 +3797,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3813,7 +3813,7 @@
         <v>2.8</v>
       </c>
       <c r="G15" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H15" t="n">
         <v>5.2</v>
@@ -3844,19 +3844,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="H16" t="n">
         <v>4.3</v>
@@ -3879,39 +3879,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.9</v>
+        <v>22.4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85.3</t>
+          <t>81.9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
@@ -3965,36 +3965,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="G19" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="H19" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K19" t="n">
         <v>2.5</v>
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.6</v>
+        <v>22</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="21">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4074,7 +4074,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.8</v>
@@ -4083,7 +4083,7 @@
         <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>24.7</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -4145,12 +4145,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4160,16 +4160,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J23" t="n">
         <v>0.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.7</v>
+        <v>26.6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="K24" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25">
@@ -4223,36 +4223,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26.6</v>
+        <v>23.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G25" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>2.7</v>
@@ -4266,11 +4266,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -4279,26 +4279,26 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G26" t="n">
         <v>7.7</v>
       </c>
       <c r="H26" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
         <v>0.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="27">
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
         <v>7.8</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K27" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="28">
@@ -4356,11 +4356,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4384,7 +4384,7 @@
         <v>0.8</v>
       </c>
       <c r="K28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29">
@@ -4395,30 +4395,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="H29" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I29" t="n">
         <v>1.8</v>
@@ -4427,7 +4427,7 @@
         <v>0.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -4438,30 +4438,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
@@ -4470,7 +4470,7 @@
         <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -4643,36 +4643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
         <v>3.1</v>
@@ -4686,39 +4686,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>10.9</v>
+        <v>8.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4772,39 +4772,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.4</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4819,16 +4819,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>73.7</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.8</v>
+        <v>20.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.1</v>
+        <v>21.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>74.9</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.4</v>
       </c>
-      <c r="G9" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.2</v>
-      </c>
       <c r="J9" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4952,31 +4952,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G11" t="n">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="H11" t="n">
         <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.3</v>
+        <v>23.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.6</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>22.3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.8</v>
+        <v>23.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
@@ -5159,36 +5159,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>11.1</v>
+        <v>9.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J15" t="n">
         <v>1.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>2.8</v>
@@ -5202,39 +5202,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.5</v>
+        <v>22.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J16" t="n">
         <v>1.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.1</v>
-      </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20">
@@ -5374,36 +5374,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.2</v>
+        <v>22.3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>73.4</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>10.2</v>
+        <v>9.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -5430,14 +5430,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>75.2</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
@@ -5460,30 +5460,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.3</v>
+        <v>23.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>73.4</t>
+          <t>75.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
         <v>1.7</v>
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="24">
@@ -5550,26 +5550,26 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="H24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
         <v>1.5</v>
@@ -5578,7 +5578,7 @@
         <v>1.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>10.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
@@ -5636,23 +5636,23 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
@@ -5675,39 +5675,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>77.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="n">
-        <v>9.699999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="H27" t="n">
         <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>75.3</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -5750,7 +5750,7 @@
         <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="29">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>13.6</v>
+        <v>15.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
         <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.3</v>
+        <v>18</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>15.4</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.8</v>
+        <v>19.5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.4</v>
+        <v>19</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>14.4</v>
+        <v>13.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.5</v>
+        <v>21.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>13.2</v>
+        <v>14.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>74.2</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G10" t="n">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -6443,16 +6443,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>68.4</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6462,13 +6462,13 @@
         <v>14.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
         <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
         <v>2.7</v>
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>67.1</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.2</v>
       </c>
-      <c r="G14" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="G15" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.6</v>
+        <v>21.7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>15.3</v>
+        <v>14.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="17">
@@ -6611,36 +6611,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.2</v>
+        <v>21.1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>11.7</v>
+        <v>14.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="K17" t="n">
         <v>2.4</v>
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.8</v>
+        <v>20.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>14.5</v>
+        <v>15.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="H19" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="20">
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.4</v>
       </c>
-      <c r="G20" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.7</v>
+        <v>22.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G21" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22">
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20.8</v>
+        <v>23.7</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>77.7</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="23">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6959,11 +6959,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6975,10 +6975,10 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -6998,39 +6998,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20.6</v>
+        <v>22.2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G26" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="27">
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22.1</v>
+        <v>21.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G27" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="28">
@@ -7127,39 +7127,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G29" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="H29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
@@ -7170,39 +7170,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="H30" t="n">
         <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -506,26 +506,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I2" t="n">
         <v>1.5</v>
@@ -545,39 +545,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="H3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4">
@@ -588,39 +588,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.3</v>
+        <v>21.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -678,11 +678,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,39 +760,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.8</v>
+        <v>22.9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
@@ -803,30 +803,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -835,7 +835,7 @@
         <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.3</v>
+        <v>25.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H10" t="n">
         <v>8.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -889,36 +889,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25.1</v>
+        <v>27</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.4</v>
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.5</v>
+        <v>23</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
         <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27.1</v>
+        <v>24.2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="H15" t="n">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1112,22 +1112,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H16" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -1136,7 +1136,7 @@
         <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="17">
@@ -1151,26 +1151,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>2.5</v>
@@ -1179,7 +1179,7 @@
         <v>0.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="H19" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G22" t="n">
         <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I22" t="n">
         <v>2.1</v>
@@ -1394,7 +1394,7 @@
         <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25.8</v>
+        <v>24.2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="H23" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="I23" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24">
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.3</v>
+        <v>25.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H24" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
@@ -1538,35 +1538,35 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>85.9</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
         <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="27">
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.8</v>
+        <v>26.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="28">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26.8</v>
+        <v>24.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>86.4</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="29">
@@ -1663,39 +1663,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.4</v>
+        <v>25.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>86.9</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K29" t="n">
         <v>3</v>
-      </c>
-      <c r="G29" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="30">
@@ -1706,39 +1706,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26.1</v>
+        <v>24.3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>86.4</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="H30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="31">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1762,14 +1762,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86.5</t>
+          <t>86.6</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3.7</v>
       </c>
       <c r="G31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H31" t="n">
         <v>8.4</v>
@@ -1781,7 +1781,7 @@
         <v>0.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -1868,33 +1868,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>79.1</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.9</v>
+        <v>22.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -2126,15 +2126,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2143,22 +2143,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="9">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>24.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
         <v>0.7</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2349,31 +2349,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2384,39 +2384,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
         <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81.7</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
         <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
@@ -2517,11 +2517,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
         <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I17" t="n">
         <v>1.7</v>
@@ -2545,7 +2545,7 @@
         <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H19" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="20">
@@ -2642,36 +2642,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
         <v>6.7</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
         <v>2.7</v>
@@ -2685,15 +2685,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.9</v>
+        <v>25.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="H21" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G23" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
@@ -2857,33 +2857,33 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25.1</v>
+        <v>23.3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="G25" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
         <v>0.6</v>
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2923,7 +2923,7 @@
         <v>7.1</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I26" t="n">
         <v>1.8</v>
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.9</v>
+        <v>23.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G27" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H27" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.3</v>
+        <v>24.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G28" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I28" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="29">
@@ -3080,22 +3080,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
         <v>6.9</v>
       </c>
       <c r="H30" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I30" t="n">
         <v>1.7</v>
@@ -3234,39 +3234,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.4</v>
+        <v>22.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -3277,11 +3277,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.3</v>
+        <v>20.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3290,26 +3290,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
@@ -3320,39 +3320,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -3367,23 +3367,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>75.3</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.9</v>
@@ -3395,7 +3395,7 @@
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -3406,39 +3406,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.6</v>
+        <v>22.7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.4</v>
+        <v>20.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.3</v>
+        <v>20.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.8</v>
+        <v>22.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
         <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12">
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3677,20 +3677,20 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
         <v>0.9</v>
@@ -3707,33 +3707,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.6</v>
+        <v>23.2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
         <v>0.6</v>
@@ -3750,39 +3750,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.6</v>
+        <v>22.7</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>8.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
         <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="15">
@@ -3793,39 +3793,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
         <v>0.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3844,28 +3844,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G16" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K16" t="n">
         <v>2.7</v>
@@ -3879,39 +3879,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3973,31 +3973,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>2.7</v>
       </c>
       <c r="G19" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="20">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>24.4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4051,39 +4051,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
         <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H22" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -4137,30 +4137,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>81.9</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H23" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
         <v>1.8</v>
@@ -4169,7 +4169,7 @@
         <v>0.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24">
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26.6</v>
+        <v>22.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="25">
@@ -4223,39 +4223,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.6</v>
+        <v>26.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -4266,39 +4266,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.4</v>
+        <v>24.6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
         <v>0.9</v>
       </c>
       <c r="K26" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="27">
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.6</v>
+        <v>23.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G27" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H27" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
         <v>0.9</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="28">
@@ -4395,39 +4395,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
         <v>7.7</v>
       </c>
       <c r="H29" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="I29" t="n">
         <v>1.8</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4438,30 +4438,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="H30" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
@@ -4470,7 +4470,7 @@
         <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -4485,23 +4485,23 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G31" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H31" t="n">
         <v>4.3</v>
@@ -4513,7 +4513,7 @@
         <v>0.9</v>
       </c>
       <c r="K31" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4604,11 +4604,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4620,10 +4620,10 @@
         <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>1.3</v>
@@ -4686,11 +4686,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -4699,26 +4699,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>8.6</v>
+        <v>10.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>10.9</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4772,39 +4772,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.7</v>
+        <v>22.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>73.7</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.7</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4823,31 +4823,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.7</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.5</t>
+          <t>74.9</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.9</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.6</v>
+        <v>20.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>73.8</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.4</v>
+        <v>23.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="J11" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.5</v>
+        <v>22.1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.6</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.4</v>
+        <v>21.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
@@ -5159,39 +5159,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.8</v>
+        <v>23.4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
@@ -5206,16 +5206,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5228,13 +5228,13 @@
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -5296,22 +5296,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
         <v>1.5</v>
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>73.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>10.2</v>
+        <v>9.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="20">
@@ -5374,36 +5374,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>73.4</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -5417,15 +5417,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.5</v>
+        <v>23.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5434,19 +5434,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>2.9</v>
@@ -5460,36 +5460,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.8</v>
+        <v>22.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>75.2</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>11.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
         <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="K22" t="n">
         <v>2.9</v>
@@ -5507,11 +5507,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5526,7 +5526,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
         <v>1.4</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="24">
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -5602,26 +5602,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J25" t="n">
         <v>1.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="26">
@@ -5675,39 +5675,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>77.7</t>
+          <t>75.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J27" t="n">
         <v>1.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28">
@@ -5718,39 +5718,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>75.3</t>
+          <t>77.7</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29">
@@ -5774,11 +5774,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G29" t="n">
         <v>10.9</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5824,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="H30" t="n">
         <v>4.7</v>
@@ -5851,16 +5851,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -5870,7 +5870,7 @@
         <v>10.5</v>
       </c>
       <c r="H31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I31" t="n">
         <v>1.7</v>
@@ -5879,7 +5879,7 @@
         <v>1.6</v>
       </c>
       <c r="K31" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -5970,7 +5970,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -5986,16 +5986,16 @@
         <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.2</v>
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.3</v>
+        <v>19.2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>15.3</v>
+        <v>14.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4">
@@ -6056,11 +6056,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -6072,19 +6072,19 @@
         <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
         <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="G5" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>21.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
         <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.5</t>
+          <t>73.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.3</v>
       </c>
-      <c r="G8" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J8" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G9" t="n">
-        <v>14.3</v>
+        <v>13.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.9</v>
+        <v>21.5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.4</v>
       </c>
-      <c r="G10" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="11">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>20.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G11" t="n">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.8</v>
+        <v>18.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -6486,23 +6486,23 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
@@ -6514,7 +6514,7 @@
         <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.5</v>
+        <v>20.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>68.4</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G15" t="n">
-        <v>12.4</v>
+        <v>14.2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
         <v>1.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.7</v>
+        <v>17.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.5</v>
       </c>
-      <c r="G16" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.8</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="17">
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G17" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18">
@@ -6654,36 +6654,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G18" t="n">
-        <v>15.4</v>
+        <v>14.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K18" t="n">
         <v>2.4</v>
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I21" t="n">
         <v>1.4</v>
       </c>
-      <c r="G21" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J21" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="22">
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.7</v>
+        <v>21.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="G22" t="n">
-        <v>14.3</v>
+        <v>15.4</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>14.2</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21.8</v>
+        <v>24.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G24" t="n">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -6955,39 +6955,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.6</v>
+        <v>21.1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="26">
@@ -6998,39 +6998,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.2</v>
+        <v>21.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G26" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="27">
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21.2</v>
+        <v>22.7</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G27" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="28">
@@ -7088,26 +7088,26 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>71.9</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>1.3</v>
       </c>
       <c r="G28" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
         <v>1.3</v>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -635,23 +635,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
         <v>7.9</v>
@@ -846,33 +846,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25.1</v>
+        <v>24.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
         <v>0.5</v>
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>25.3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="H13" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
         <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14">
@@ -1018,15 +1018,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1038,19 +1038,19 @@
         <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.2</v>
+        <v>23.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H17" t="n">
-        <v>9.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
         <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>8.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
         <v>0.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="20">
@@ -1319,20 +1319,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1342,16 +1342,16 @@
         <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="22">
@@ -1362,20 +1362,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1385,16 +1385,16 @@
         <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>8.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.2</v>
+        <v>25.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="H23" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24">
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.8</v>
+        <v>24.2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="H24" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="25">
@@ -1499,22 +1499,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="I25" t="n">
         <v>2.2</v>
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>26.6</v>
+        <v>24.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>86.4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.6</v>
+        <v>26.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>86.4</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G28" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="29">
@@ -1915,20 +1915,20 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>6.3</v>
@@ -2087,26 +2087,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.7</v>
@@ -2115,7 +2115,7 @@
         <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H12" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I12" t="n">
         <v>1.7</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="I13" t="n">
         <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14">
@@ -2427,30 +2427,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
         <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I15" t="n">
         <v>1.8</v>
@@ -2459,7 +2459,7 @@
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H19" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H20" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25.1</v>
+        <v>23.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2771,15 +2771,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2791,19 +2791,19 @@
         <v>3.7</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G24" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
         <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H27" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="28">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.9</v>
+        <v>23.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G28" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H28" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
@@ -3234,39 +3234,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.4</v>
+        <v>20.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
@@ -3277,39 +3277,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.4</v>
+        <v>22.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -3406,39 +3406,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.7</v>
+        <v>20.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.8</v>
+        <v>22.7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -3535,39 +3535,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.6</v>
+        <v>20.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.3</v>
+        <v>20.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.8</v>
+        <v>22.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3836,39 +3836,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K16" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="17">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3887,28 +3887,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K17" t="n">
         <v>2.7</v>
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="19">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3978,26 +3978,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -4051,39 +4051,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
         <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
         <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>2.8</v>
       </c>
       <c r="G22" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
         <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
@@ -4270,26 +4270,26 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
         <v>7.8</v>
       </c>
       <c r="H26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
         <v>1.7</v>
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
         <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K27" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="28">
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G28" t="n">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
         <v>1.9</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4395,39 +4395,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
         <v>7.7</v>
       </c>
       <c r="H29" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I29" t="n">
         <v>1.8</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -4438,39 +4438,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>7.7</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -4733,35 +4733,35 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
         <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -4815,39 +4815,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.4</v>
+        <v>21.6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
         <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -4862,23 +4862,23 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.9</t>
+          <t>75.3</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H8" t="n">
         <v>4.3</v>
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.6</v>
+        <v>20.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>73.8</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.1</v>
+        <v>22.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G10" t="n">
-        <v>9.300000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.2</v>
+        <v>23</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>73.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="21">
@@ -5417,36 +5417,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.8</v>
+        <v>22.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>75.2</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>11.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
         <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="K21" t="n">
         <v>2.9</v>
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.5</v>
+        <v>23.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -5503,27 +5503,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="H23" t="n">
         <v>4.4</v>
@@ -5532,10 +5532,10 @@
         <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.7</v>
+        <v>23.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>75.3</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>9.6</v>
+        <v>10.3</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
@@ -5675,36 +5675,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>75.3</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>2.8</v>
@@ -5722,26 +5722,26 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>77.7</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>2.5</v>
       </c>
       <c r="G28" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.2</v>
+        <v>21.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6099,32 +6099,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.5</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1.3</v>
       </c>
       <c r="G5" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.4</v>
+        <v>19.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>73.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.8</v>
+        <v>21.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.4</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.4</v>
       </c>
-      <c r="G7" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.3</v>
+        <v>19.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>15.3</v>
+        <v>14.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.8</v>
+        <v>18.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>15.4</v>
+        <v>14.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.5</v>
+        <v>22.2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
         <v>1.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.8</v>
+        <v>20.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>68.4</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.4</v>
       </c>
-      <c r="G13" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.2</v>
+        <v>17.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="G14" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20.8</v>
+        <v>21.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.3</v>
       </c>
-      <c r="G15" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17.8</v>
+        <v>21.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="G16" t="n">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K16" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1.4</v>
       </c>
       <c r="G17" t="n">
-        <v>14.7</v>
+        <v>13.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18">
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G18" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="H18" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="19">
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.1</v>
+        <v>20.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>13.8</v>
+        <v>15.4</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="K19" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -6748,12 +6748,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>71.5</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6769,7 +6769,7 @@
         <v>1.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="K20" t="n">
         <v>2.4</v>
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.6</v>
+        <v>21.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="24">
@@ -6955,39 +6955,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21.1</v>
+        <v>24.1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
         <v>1.5</v>
       </c>
-      <c r="J25" t="n">
-        <v>2</v>
-      </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
@@ -7183,11 +7183,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G30" t="n">
         <v>15.4</v>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -510,12 +510,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -525,7 +525,7 @@
         <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="I2" t="n">
         <v>1.5</v>
@@ -545,39 +545,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.9</v>
+        <v>21.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="4">
@@ -588,39 +588,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.9</v>
+        <v>23.6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -717,39 +717,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23.8</v>
+        <v>20.9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>40.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -811,12 +811,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -826,10 +826,10 @@
         <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J9" t="n">
         <v>0.4</v>
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11">
@@ -889,36 +889,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>24.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H11" t="n">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.4</v>
@@ -936,11 +936,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1038,10 +1038,10 @@
         <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H14" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>2.1</v>
@@ -1061,11 +1061,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H15" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1093,7 +1093,7 @@
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.4</v>
+        <v>26.9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
         <v>0.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
-        <v>9.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
         <v>0.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="H19" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="20">
@@ -1319,20 +1319,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1342,16 +1342,16 @@
         <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>8.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="22">
@@ -1362,39 +1362,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.6</v>
+        <v>25.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.4</v>
       </c>
     </row>
     <row r="23">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25.8</v>
+        <v>24.2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="H23" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="I23" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1456,31 +1456,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H24" t="n">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -1495,26 +1495,26 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
         <v>6.7</v>
       </c>
       <c r="H25" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="I25" t="n">
         <v>2.2</v>
@@ -1523,7 +1523,7 @@
         <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1581,11 +1581,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,7 +1600,7 @@
         <v>7.1</v>
       </c>
       <c r="H27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I27" t="n">
         <v>1.9</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1643,16 +1643,16 @@
         <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
         <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1667,11 +1667,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1680,10 +1680,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H29" t="n">
         <v>8.800000000000001</v>
@@ -1692,7 +1692,7 @@
         <v>2.4</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1762,17 +1762,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86.6</t>
+          <t>86.7</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3.7</v>
       </c>
       <c r="G31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H31" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="I31" t="n">
         <v>2.5</v>
@@ -1872,23 +1872,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H2" t="n">
         <v>5.2</v>
@@ -1958,20 +1958,20 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
         <v>6.5</v>
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.2</v>
+        <v>22.5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.1</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
         <v>0.7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.2</v>
+        <v>22.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.3</v>
+        <v>23.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="H12" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
         <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14">
@@ -2384,39 +2384,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>3.5</v>
       </c>
       <c r="G17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.2</v>
       </c>
-      <c r="H17" t="n">
-        <v>5.1</v>
-      </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18">
@@ -2556,39 +2556,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
         <v>6.6</v>
       </c>
       <c r="H18" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H19" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="20">
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
         <v>6.6</v>
       </c>
       <c r="H20" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.5</v>
+        <v>23.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>77.4</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="23">
@@ -2771,15 +2771,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2791,19 +2791,19 @@
         <v>3.7</v>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24">
@@ -2818,29 +2818,29 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G24" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
@@ -2990,26 +2990,26 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>3.7</v>
       </c>
       <c r="G28" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
         <v>1.7</v>
@@ -3018,7 +3018,7 @@
         <v>0.7</v>
       </c>
       <c r="K28" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29">
@@ -3033,26 +3033,26 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="H29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I29" t="n">
         <v>2.2</v>
@@ -3080,22 +3080,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H30" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I30" t="n">
         <v>1.7</v>
@@ -3123,16 +3123,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G31" t="n">
         <v>7.1</v>
@@ -3285,25 +3285,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -3324,11 +3324,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.3</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3406,39 +3406,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.8</v>
+        <v>22.7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.7</v>
+        <v>20.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.7</v>
+        <v>22.3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3548,26 +3548,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>87.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.3</v>
+        <v>20.7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12">
@@ -3672,25 +3672,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
         <v>7.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J12" t="n">
         <v>0.9</v>
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>8.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J13" t="n">
         <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
@@ -3750,39 +3750,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -3840,35 +3840,35 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J16" t="n">
         <v>0.9</v>
       </c>
       <c r="K16" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -3879,39 +3879,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3978,26 +3978,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4051,39 +4051,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.4</v>
+        <v>23.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
         <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>2.8</v>
       </c>
       <c r="G22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
         <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -4236,14 +4236,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -4266,30 +4266,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="I26" t="n">
         <v>1.7</v>
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G27" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="28">
@@ -4356,16 +4356,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4375,7 +4375,7 @@
         <v>7.6</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
         <v>1.9</v>
@@ -4395,33 +4395,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="H29" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J29" t="n">
         <v>0.8</v>
@@ -4438,39 +4438,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G30" t="n">
         <v>7.7</v>
       </c>
       <c r="H30" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -4489,31 +4489,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G31" t="n">
         <v>8.5</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -4604,23 +4604,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.6</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4663,7 +4663,7 @@
         <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H3" t="n">
         <v>4.1</v>
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>72.9</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>10.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J5" t="n">
         <v>1.6</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -4772,39 +4772,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.4</v>
+        <v>20.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.7</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>10.9</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.2</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.7</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
@@ -4905,23 +4905,23 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>74.2</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.8</v>
@@ -4933,7 +4933,7 @@
         <v>1.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>71.8</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4976,7 +4976,7 @@
         <v>1.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.2</v>
+        <v>21.7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.1</v>
+        <v>23.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.6</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>10.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J13" t="n">
         <v>1.3</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.8</v>
+        <v>22.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>9.9</v>
+        <v>11.1</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
@@ -5159,39 +5159,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.4</v>
+        <v>21.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J15" t="n">
         <v>1.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -5202,39 +5202,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17">
@@ -5245,39 +5245,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.3</v>
+        <v>23.1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18">
@@ -5339,12 +5339,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5357,13 +5357,13 @@
         <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
         <v>1.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="20">
@@ -5378,11 +5378,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G20" t="n">
         <v>9.5</v>
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.5</v>
+        <v>23.3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -5460,27 +5460,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="H22" t="n">
         <v>4.4</v>
@@ -5489,10 +5489,10 @@
         <v>1.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="25">
@@ -5589,27 +5589,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>75.3</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="H25" t="n">
         <v>4.5</v>
@@ -5618,10 +5618,10 @@
         <v>1.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
@@ -5675,36 +5675,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K27" t="n">
         <v>2.8</v>
@@ -5769,12 +5769,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -5784,7 +5784,7 @@
         <v>10.9</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
         <v>1.4</v>
@@ -5808,7 +5808,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -5817,14 +5817,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="H30" t="n">
         <v>4.7</v>
@@ -5851,16 +5851,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -5879,7 +5879,7 @@
         <v>1.6</v>
       </c>
       <c r="K31" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5970,26 +5970,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>75.2</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
         <v>1.4</v>
@@ -5998,7 +5998,7 @@
         <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -6013,26 +6013,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1.3</v>
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.9</v>
+        <v>20</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>18.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.8</v>
+        <v>21.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.4</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.4</v>
       </c>
-      <c r="G6" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.4</v>
+        <v>19.3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="G8" t="n">
-        <v>14.3</v>
+        <v>13.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -6400,26 +6400,26 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
         <v>1.2</v>
@@ -6428,7 +6428,7 @@
         <v>1.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -6439,36 +6439,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.8</v>
+        <v>18.1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J13" t="n">
         <v>1.3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.1</v>
       </c>
       <c r="K13" t="n">
         <v>2.7</v>
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.8</v>
+        <v>21.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>68.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G15" t="n">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
         <v>1.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16">
@@ -6568,36 +6568,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G16" t="n">
-        <v>14.2</v>
+        <v>15.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K16" t="n">
         <v>2.4</v>
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G17" t="n">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I17" t="n">
         <v>1.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18">
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.4</v>
       </c>
       <c r="G18" t="n">
-        <v>14.7</v>
+        <v>13.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="20">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -6812,7 +6812,7 @@
         <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
@@ -6830,16 +6830,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6858,7 +6858,7 @@
         <v>1.9</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="23">
@@ -6873,23 +6873,23 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="H23" t="n">
         <v>3.7</v>
@@ -6898,10 +6898,10 @@
         <v>1.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="24">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -6998,36 +6998,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21.1</v>
+        <v>22.7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G26" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22.7</v>
+        <v>21.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G27" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="28">
@@ -7088,16 +7088,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>71.9</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7110,7 +7110,7 @@
         <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7147,19 +7147,19 @@
         <v>1.3</v>
       </c>
       <c r="G29" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30">

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -525,7 +525,7 @@
         <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="I2" t="n">
         <v>1.5</v>
@@ -553,12 +553,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>71.9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -568,7 +568,7 @@
         <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="n">
         <v>1.7</v>
@@ -577,7 +577,7 @@
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
@@ -631,39 +631,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
         <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H7" t="n">
         <v>9.199999999999999</v>
@@ -768,12 +768,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -786,7 +786,7 @@
         <v>7.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
         <v>0.4</v>
@@ -803,39 +803,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.3</v>
+        <v>24.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.8</v>
+        <v>22.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H10" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -889,33 +889,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24.2</v>
+        <v>25.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
         <v>0.5</v>
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25.3</v>
+        <v>23.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H13" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.1</v>
+        <v>26.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26.9</v>
+        <v>23.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
         <v>0.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="H17" t="n">
-        <v>9.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>8.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
         <v>0.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="19">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G19" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I19" t="n">
         <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25.1</v>
+        <v>24.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H20" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="21">
@@ -1323,35 +1323,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H21" t="n">
         <v>9.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
         <v>7.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J22" t="n">
         <v>0.8</v>
@@ -1409,11 +1409,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>8.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>86.4</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="H26" t="n">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27">
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.7</v>
+        <v>26.5</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.4</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G27" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="H27" t="n">
         <v>9.1</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1620,36 +1620,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26.4</v>
+        <v>25.7</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
         <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
@@ -1663,39 +1663,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25.7</v>
+        <v>24.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="H29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
@@ -1710,16 +1710,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>86.4</t>
+          <t>86.3</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1738,7 +1738,7 @@
         <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="31">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1891,7 +1891,7 @@
         <v>6.3</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
         <v>1.2</v>
@@ -1911,39 +1911,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
         <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.5</v>
+        <v>23.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.2</v>
+        <v>22.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
         <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="9">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H10" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
         <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -2341,30 +2341,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I13" t="n">
         <v>1.5</v>
@@ -2373,7 +2373,7 @@
         <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -2384,39 +2384,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16">
@@ -2470,30 +2470,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
         <v>1.8</v>
@@ -2502,7 +2502,7 @@
         <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G19" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="H19" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
         <v>6.6</v>
       </c>
       <c r="H20" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.8</v>
+        <v>23</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G21" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J21" t="n">
         <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -2732,23 +2732,23 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H22" t="n">
         <v>5.3</v>
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="H24" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G25" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2923,7 +2923,7 @@
         <v>7.1</v>
       </c>
       <c r="H26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
         <v>1.8</v>
@@ -2932,7 +2932,7 @@
         <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
@@ -2947,11 +2947,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2963,7 +2963,7 @@
         <v>3.9</v>
       </c>
       <c r="G27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H27" t="n">
         <v>5.6</v>
@@ -2990,16 +2990,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3234,39 +3234,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.5</v>
+        <v>22.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -3277,39 +3277,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -3320,39 +3320,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.2</v>
+        <v>20.8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3386,7 +3386,7 @@
         <v>7.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
         <v>1.3</v>
@@ -3406,39 +3406,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.7</v>
+        <v>20.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>40.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.8</v>
+        <v>22.7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.3</v>
+        <v>20.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3548,26 +3548,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.7</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -3578,36 +3578,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.7</v>
+        <v>22.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.7</v>
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.7</v>
+        <v>22.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>87.7</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3664,36 +3664,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>20.7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
         <v>1.6</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.7</v>
+        <v>22</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="14">
@@ -3750,39 +3750,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
         <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
@@ -3793,27 +3793,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="H15" t="n">
         <v>4.6</v>
@@ -3825,7 +3825,7 @@
         <v>0.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16">
@@ -3836,39 +3836,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.800000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17">
@@ -3879,39 +3879,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18">
@@ -3965,30 +3965,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
         <v>1.5</v>
@@ -3997,7 +3997,7 @@
         <v>0.8</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="20">
@@ -4008,30 +4008,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.2</v>
+        <v>22.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I20" t="n">
         <v>1.5</v>
@@ -4040,7 +4040,7 @@
         <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -4051,39 +4051,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
         <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>2.8</v>
       </c>
       <c r="G22" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
         <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
@@ -4145,16 +4145,16 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G23" t="n">
         <v>8.1</v>
@@ -4188,31 +4188,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="H24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H26" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
         <v>1.7</v>
@@ -4309,30 +4309,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H27" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="I27" t="n">
         <v>1.7</v>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4451,17 +4451,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
@@ -4470,7 +4470,7 @@
         <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">
@@ -4604,23 +4604,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
@@ -4643,39 +4643,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.6</v>
+        <v>20.9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
         <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4686,39 +4686,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.4</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -4815,39 +4815,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.6</v>
+        <v>22.7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75.3</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>10.7</v>
+        <v>9.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.3</v>
+        <v>21.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
         <v>1.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.7</v>
+        <v>21.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
         <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.5</v>
+        <v>21.9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.4</v>
+        <v>21.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>11.1</v>
+        <v>9.9</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
@@ -5159,39 +5159,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.8</v>
+        <v>23.4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
@@ -5202,39 +5202,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
@@ -5245,39 +5245,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="18">
@@ -5292,26 +5292,26 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
         <v>1.5</v>
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="19">
@@ -5331,11 +5331,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -5344,26 +5344,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="20">
@@ -5417,27 +5417,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="H21" t="n">
         <v>4.4</v>
@@ -5446,10 +5446,10 @@
         <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.6</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>11.7</v>
+        <v>9.6</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J24" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.9</v>
+        <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>11.2</v>
+        <v>10.1</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>9.6</v>
+        <v>11.2</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27">
@@ -5966,39 +5966,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.6</v>
+        <v>21.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.2</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6009,36 +6009,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.4</v>
+        <v>20.2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G3" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -6052,36 +6052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>75.2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>13.8</v>
+        <v>14.6</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
         <v>1.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.1</v>
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>13.3</v>
+        <v>14.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -6142,32 +6142,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="G7" t="n">
-        <v>14.3</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.4</v>
+        <v>18.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G8" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>73.4</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6290,7 +6290,7 @@
         <v>13.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>1.2</v>
@@ -6314,32 +6314,32 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>72.9</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>1.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K10" t="n">
         <v>2.6</v>
@@ -6357,11 +6357,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -6376,7 +6376,7 @@
         <v>14.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
         <v>1.1</v>
@@ -6385,7 +6385,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.3</v>
+        <v>20.9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>68.3</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.1</v>
+        <v>22.3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.5</v>
+        <v>18.1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G14" t="n">
-        <v>12.4</v>
+        <v>13.7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.3</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.8</v>
-      </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.3</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.4</v>
       </c>
-      <c r="G15" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K15" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16">
@@ -6568,36 +6568,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G16" t="n">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K16" t="n">
         <v>2.4</v>
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G17" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="H17" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18">
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21.6</v>
+        <v>20.9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>14.7</v>
+        <v>15.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.8</v>
+        <v>24.7</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G22" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.5</v>
+        <v>21.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25">
@@ -7049,19 +7049,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>1.4</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="H27" t="n">
         <v>3.8</v>
@@ -7070,7 +7070,7 @@
         <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K27" t="n">
         <v>2.2</v>
@@ -7174,11 +7174,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7187,10 +7187,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="H30" t="n">
         <v>4.4</v>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -592,29 +592,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>2.6</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
         <v>7.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>0.5</v>
@@ -635,23 +635,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>2.9</v>
       </c>
       <c r="G5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
         <v>8</v>
@@ -678,11 +678,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -694,13 +694,13 @@
         <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
         <v>0.6</v>
@@ -760,30 +760,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.9</v>
+        <v>22.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H8" t="n">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>2.1</v>
@@ -792,7 +792,7 @@
         <v>0.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -803,39 +803,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H9" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10">
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.3</v>
+        <v>24.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -940,12 +940,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -955,7 +955,7 @@
         <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26.9</v>
+        <v>23.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
         <v>0.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="H16" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.1</v>
+        <v>27</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18">
@@ -1194,35 +1194,35 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="19">
@@ -1319,39 +1319,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H21" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J21" t="n">
         <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -1362,39 +1362,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="H22" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1413,31 +1413,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H23" t="n">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.1</v>
+        <v>25.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -1624,23 +1624,23 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H28" t="n">
         <v>8.800000000000001</v>
@@ -1649,7 +1649,7 @@
         <v>2.4</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
@@ -1753,35 +1753,35 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86.7</t>
+          <t>86.1</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H31" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J31" t="n">
         <v>0.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
@@ -1958,26 +1958,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
         <v>1.8</v>
@@ -1986,7 +1986,7 @@
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5">
@@ -2001,26 +2001,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
@@ -2029,7 +2029,7 @@
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -2126,30 +2126,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I8" t="n">
         <v>1.6</v>
@@ -2158,7 +2158,7 @@
         <v>0.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.7</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
         <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2225,26 +2225,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
         <v>0.7</v>
       </c>
       <c r="K10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.3</v>
+        <v>23.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
         <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2306,31 +2306,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H12" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.3</v>
+        <v>22.1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
         <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2392,31 +2392,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2431,11 +2431,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2487,10 +2487,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
         <v>5.5</v>
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G17" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H17" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
@@ -2556,39 +2556,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
         <v>6.6</v>
       </c>
       <c r="H18" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="19">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.4</v>
+        <v>23.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
@@ -2685,15 +2685,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
         <v>6.6</v>
       </c>
       <c r="H21" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
         <v>1.8</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.9</v>
+        <v>24.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -2771,33 +2771,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.6</v>
+        <v>23</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="G23" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="J23" t="n">
         <v>0.7</v>
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.4</v>
+        <v>24.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="G25" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="J25" t="n">
         <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G26" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.9</v>
+        <v>24</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28">
@@ -3033,23 +3033,23 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>79.1</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="H29" t="n">
         <v>5.2</v>
@@ -3072,39 +3072,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26.3</v>
+        <v>24.5</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="G30" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="H30" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="I30" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="31">
@@ -3115,39 +3115,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.5</v>
+        <v>26.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="H31" t="n">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="I31" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -3234,39 +3234,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.4</v>
+        <v>23.3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -3363,39 +3363,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>77.7</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3457,12 +3457,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3472,7 +3472,7 @@
         <v>7.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
         <v>1.7</v>
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.6</v>
+        <v>22.5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>87.6</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3535,39 +3535,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.7</v>
+        <v>21.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.6</v>
+        <v>20.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.7</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
         <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -3836,39 +3836,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>6.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -3879,39 +3879,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.6</v>
+        <v>23.7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="18">
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -3965,39 +3965,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.7</v>
+        <v>22.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -4008,11 +4008,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4021,26 +4021,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
       <c r="H20" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="21">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.5</v>
+        <v>22.1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.1</v>
+        <v>23.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="G24" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25">
@@ -4227,29 +4227,29 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
         <v>0.7</v>
@@ -4266,36 +4266,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="I26" t="n">
         <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
@@ -4309,30 +4309,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G27" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H27" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I27" t="n">
         <v>1.7</v>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4399,26 +4399,26 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
         <v>1.9</v>
@@ -4427,7 +4427,7 @@
         <v>0.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="30">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -4498,16 +4498,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G31" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="H31" t="n">
         <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -4666,7 +4666,7 @@
         <v>10.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>1.6</v>
@@ -4690,11 +4690,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4703,13 +4703,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
         <v>1.4</v>
@@ -4737,19 +4737,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="H5" t="n">
         <v>4.3</v>
@@ -4761,7 +4761,7 @@
         <v>1.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -4776,32 +4776,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -4815,39 +4815,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.7</v>
+        <v>20.3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>10.2</v>
+        <v>9.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.3</v>
+        <v>22.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -4905,20 +4905,20 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
         <v>10.8</v>
@@ -4933,7 +4933,7 @@
         <v>1.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
         <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>9.5</v>
+        <v>10.6</v>
       </c>
       <c r="H11" t="n">
         <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>10.3</v>
+        <v>9.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
         <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
@@ -5159,39 +5159,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J15" t="n">
         <v>1.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
@@ -5202,39 +5202,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>10.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
         <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17">
@@ -5245,39 +5245,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.6</v>
+        <v>23.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
         <v>10.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
         <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
         <v>10.9</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
         <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20">
@@ -5382,22 +5382,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>2.5</v>
       </c>
       <c r="G20" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
         <v>1.7</v>
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74.6</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G22" t="n">
-        <v>11.7</v>
+        <v>10.2</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
         <v>10.2</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>10.1</v>
+        <v>11.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>11.2</v>
+        <v>9.6</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
@@ -5675,27 +5675,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="n">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>4.4</v>
@@ -5704,10 +5704,10 @@
         <v>1.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28">
@@ -5761,39 +5761,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27.4</v>
+        <v>24.7</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>10.9</v>
+        <v>12.4</v>
       </c>
       <c r="H29" t="n">
         <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -5804,39 +5804,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.9</v>
+        <v>27.3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K30" t="n">
         <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -5860,17 +5860,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G31" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H31" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
         <v>1.7</v>
@@ -5966,39 +5966,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.4</v>
+        <v>19.7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>15.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
         <v>1.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -6052,27 +6052,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
         <v>4.4</v>
@@ -6081,10 +6081,10 @@
         <v>1.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -6103,31 +6103,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="n">
-        <v>14.6</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6">
@@ -6142,26 +6142,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.3</v>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -6189,31 +6189,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>14.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -6400,26 +6400,26 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68.3</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>1.3</v>
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.1</v>
+        <v>20.9</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
-        <v>13.7</v>
+        <v>15.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.4</v>
+        <v>18.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.8</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G15" t="n">
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -6568,36 +6568,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>14.2</v>
+        <v>11.8</v>
       </c>
       <c r="H16" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K16" t="n">
         <v>2.4</v>
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="19">
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="20">
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>71.5</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="G20" t="n">
-        <v>11.7</v>
+        <v>13.7</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J20" t="n">
         <v>1.4</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.6</v>
-      </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.7</v>
+        <v>21.2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I21" t="n">
         <v>1.5</v>
       </c>
-      <c r="G21" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
       </c>
     </row>
     <row r="22">
@@ -6869,15 +6869,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -6886,22 +6886,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G23" t="n">
-        <v>14.1</v>
+        <v>15.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J23" t="n">
         <v>1.9</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="G24" t="n">
-        <v>15.4</v>
+        <v>14.2</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="25">
@@ -7088,11 +7088,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G28" t="n">
         <v>16.1</v>
@@ -7116,7 +7116,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
@@ -7127,39 +7127,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>1.3</v>
       </c>
       <c r="G29" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I29" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -7170,39 +7170,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>74.1</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="31">

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -506,11 +506,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -525,10 +525,10 @@
         <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
@@ -588,39 +588,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.3</v>
+        <v>22.9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H4" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -631,39 +631,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.5</v>
+        <v>22.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
         <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -760,30 +760,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="H8" t="n">
-        <v>8.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="I8" t="n">
         <v>2.1</v>
@@ -792,7 +792,7 @@
         <v>0.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
@@ -803,30 +803,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>2.1</v>
@@ -835,7 +835,7 @@
         <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="H20" t="n">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21">
@@ -1319,39 +1319,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="H21" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.9</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="22">
@@ -1362,39 +1362,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H22" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J22" t="n">
         <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.1</v>
+        <v>25.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="24">
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.7</v>
+        <v>24.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H24" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
         <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H8" t="n">
         <v>5.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2192,7 +2192,7 @@
         <v>6.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
         <v>1.6</v>
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
         <v>1.8</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -3234,39 +3234,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23.3</v>
+        <v>22.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>77.7</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="3">
@@ -3363,39 +3363,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.7</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3535,36 +3535,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.8</v>
+        <v>20.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
         <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.7</v>
+        <v>21.9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12">
@@ -3664,39 +3664,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20.7</v>
+        <v>22.6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
         <v>1.6</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13">
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.9</v>
+        <v>20.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14">
@@ -3879,30 +3879,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.7</v>
+        <v>22.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="H17" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I17" t="n">
         <v>1.5</v>
@@ -3911,7 +3911,7 @@
         <v>0.8</v>
       </c>
       <c r="K17" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
@@ -3922,30 +3922,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="I18" t="n">
         <v>1.5</v>
@@ -3954,7 +3954,7 @@
         <v>0.8</v>
       </c>
       <c r="K18" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="19">
@@ -4137,39 +4137,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>2.9</v>
       </c>
       <c r="G23" t="n">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
         <v>0.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.7</v>
+        <v>22.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>2.9</v>
       </c>
       <c r="G24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="H24" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
         <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="25">
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>20.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>10.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J5" t="n">
         <v>1.2</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.6</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -4772,39 +4772,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.6</v>
+        <v>22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>8.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -4815,39 +4815,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.3</v>
+        <v>22.7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.7</v>
+        <v>20.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>10.2</v>
+        <v>9.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
         <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -4987,27 +4987,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.4</v>
+        <v>22</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>10.6</v>
+        <v>9.5</v>
       </c>
       <c r="H11" t="n">
         <v>4.4</v>
@@ -5016,7 +5016,7 @@
         <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>2.9</v>
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.8</v>
+        <v>21.9</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>10.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="15">
@@ -5159,36 +5159,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.1</v>
+        <v>23.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>2.9</v>
@@ -5202,39 +5202,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -5245,39 +5245,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
         <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="18">
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>9.4</v>
+        <v>10.9</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>74.6</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>11.7</v>
+        <v>10.2</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>10.2</v>
+        <v>11.7</v>
       </c>
       <c r="H22" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -5589,36 +5589,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>11.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
         <v>1.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.5</v>
@@ -5675,36 +5675,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G27" t="n">
-        <v>9.800000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="H27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K27" t="n">
         <v>2.5</v>
@@ -5761,39 +5761,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.7</v>
+        <v>27.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G29" t="n">
-        <v>12.4</v>
+        <v>10.8</v>
       </c>
       <c r="H29" t="n">
         <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -5804,39 +5804,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>27.3</v>
+        <v>24.7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>10.8</v>
+        <v>12.4</v>
       </c>
       <c r="H30" t="n">
         <v>4.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G3" t="n">
-        <v>15.7</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
         <v>1.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>15.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
         <v>1.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -6103,31 +6103,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>14.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.5</v>
+        <v>19.7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>73.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>14.9</v>
+        <v>13.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.2</v>
+        <v>21.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.2</v>
       </c>
-      <c r="G8" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.7</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.7</v>
+        <v>18.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.4</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>20.7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20.7</v>
+        <v>22.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.3</v>
+        <v>19</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>13.6</v>
+        <v>14.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20.9</v>
+        <v>18.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G14" t="n">
-        <v>15.6</v>
+        <v>13.6</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18.5</v>
+        <v>21.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="G15" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.8</v>
+        <v>20.9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.6</v>
-      </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17">
@@ -6611,36 +6611,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>14.2</v>
+        <v>12.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>12.5</v>
+        <v>15.6</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.4</v>
       </c>
-      <c r="G20" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21.2</v>
+        <v>23</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="G21" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="22">
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21.8</v>
+        <v>21.2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>15.4</v>
+        <v>14.1</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.9</v>
       </c>
       <c r="K23" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="24">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>21.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>14.2</v>
+        <v>15.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25">
@@ -6955,39 +6955,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.1</v>
+        <v>22.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="G25" t="n">
-        <v>15.4</v>
+        <v>14.2</v>
       </c>
       <c r="H25" t="n">
         <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="26">
@@ -6998,39 +6998,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.7</v>
+        <v>24.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>14.2</v>
+        <v>15.4</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="27">

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -545,39 +545,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.9</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -588,39 +588,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.9</v>
+        <v>21.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -631,39 +631,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.5</v>
+        <v>20.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>40.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -717,39 +717,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>9.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
         <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
@@ -764,29 +764,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H8" t="n">
         <v>7.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>0.4</v>
@@ -807,16 +807,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -826,16 +826,16 @@
         <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11">
@@ -893,11 +893,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -921,7 +921,7 @@
         <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13">
@@ -975,36 +975,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
         <v>2.1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K13" t="n">
         <v>2.7</v>
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.8</v>
+        <v>24.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H14" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.3</v>
+        <v>27</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="H15" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>0.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>23.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>81.9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="H18" t="n">
-        <v>9.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19">
@@ -1237,20 +1237,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
         <v>5.8</v>
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
         <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21">
@@ -1323,35 +1323,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>5.6</v>
       </c>
       <c r="H21" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J21" t="n">
         <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
@@ -1362,39 +1362,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G22" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H22" t="n">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
         <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25.7</v>
+        <v>24</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="I23" t="n">
         <v>1.9</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24">
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.1</v>
+        <v>25.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -1495,16 +1495,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1514,10 +1514,10 @@
         <v>6.7</v>
       </c>
       <c r="H25" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
         <v>0.6</v>
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.7</v>
+        <v>25.7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>86.4</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="H26" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>26.5</v>
+        <v>24.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>86.6</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>24.7</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="H28" t="n">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="29">
@@ -1663,39 +1663,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.8</v>
+        <v>26.4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G29" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="H29" t="n">
-        <v>7.9</v>
+        <v>9.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1710,16 +1710,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>86.3</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86.1</t>
+          <t>86.3</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1772,13 +1772,13 @@
         <v>6.4</v>
       </c>
       <c r="H31" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I31" t="n">
         <v>2.4</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K31" t="n">
         <v>3.1</v>
@@ -1876,22 +1876,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
         <v>1.2</v>
@@ -1900,7 +1900,7 @@
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -1915,26 +1915,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
         <v>1.3</v>
@@ -1958,11 +1958,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G4" t="n">
         <v>6.3</v>
@@ -1986,7 +1986,7 @@
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.4</v>
+        <v>23.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
         <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -2087,16 +2087,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2106,7 +2106,7 @@
         <v>6.8</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
         <v>1.6</v>
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.2</v>
+        <v>22.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
         <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
         <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
         <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.1</v>
+        <v>22.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2392,31 +2392,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="15">
@@ -2427,15 +2427,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>22.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2444,22 +2444,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H15" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="16">
@@ -2526,17 +2526,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>85.3</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>3.2</v>
       </c>
       <c r="G17" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I17" t="n">
         <v>1.4</v>
@@ -2545,7 +2545,7 @@
         <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
@@ -2556,39 +2556,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
         <v>6.6</v>
       </c>
       <c r="H19" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2659,13 +2659,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
         <v>1.8</v>
@@ -2674,7 +2674,7 @@
         <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="23">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2797,7 +2797,7 @@
         <v>5.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J23" t="n">
         <v>0.7</v>
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G24" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="G25" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
         <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="26">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.4</v>
+        <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="G26" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H26" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="J26" t="n">
         <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G27" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="28">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="29">
@@ -3033,26 +3033,26 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>79.1</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H29" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I29" t="n">
         <v>2.2</v>
@@ -3061,7 +3061,7 @@
         <v>0.7</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="30">
@@ -3076,26 +3076,26 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="H30" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I30" t="n">
         <v>1.9</v>
@@ -3119,20 +3119,20 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G31" t="n">
         <v>6.7</v>
@@ -3147,7 +3147,7 @@
         <v>0.8</v>
       </c>
       <c r="K31" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -3281,16 +3281,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3309,7 +3309,7 @@
         <v>0.7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3343,16 +3343,16 @@
         <v>7.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -3406,39 +3406,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.9</v>
+        <v>22.6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.7</v>
+        <v>21.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
         <v>7.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.5</v>
+        <v>21.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.6</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9">
@@ -3535,39 +3535,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.7</v>
+        <v>22.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>87.3</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.9</v>
+        <v>20.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -3621,36 +3621,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.8</v>
+        <v>20.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
         <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
@@ -3668,20 +3668,20 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
         <v>7.2</v>
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.7</v>
+        <v>21.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -3750,39 +3750,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
         <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
@@ -3793,39 +3793,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>0.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
@@ -3836,39 +3836,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17">
@@ -3879,39 +3879,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18">
@@ -3922,30 +3922,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
         <v>1.5</v>
@@ -3954,7 +3954,7 @@
         <v>0.8</v>
       </c>
       <c r="K18" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -3965,39 +3965,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.5</v>
+        <v>23.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4055,11 +4055,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4071,10 +4071,10 @@
         <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
         <v>1.7</v>
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -4107,26 +4107,26 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>5.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="23">
@@ -4137,30 +4137,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.7</v>
+        <v>22.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
         <v>1.7</v>
@@ -4169,7 +4169,7 @@
         <v>0.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24">
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.8</v>
+        <v>23.9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>77.8</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>2.9</v>
       </c>
       <c r="G24" t="n">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
         <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25">
@@ -4236,14 +4236,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -4266,36 +4266,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H26" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
         <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.3</v>
+        <v>23.4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G27" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
         <v>0.9</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="28">
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J28" t="n">
         <v>0.9</v>
       </c>
       <c r="K28" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="29">
@@ -4395,39 +4395,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
         <v>0.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4446,31 +4446,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="H30" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J30" t="n">
         <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4507,7 +4507,7 @@
         <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -4613,17 +4613,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1.3</v>
@@ -4632,7 +4632,7 @@
         <v>0.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
@@ -4647,23 +4647,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -4675,7 +4675,7 @@
         <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -4690,11 +4690,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4706,10 +4706,10 @@
         <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.4</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
         <v>8.699999999999999</v>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -4785,14 +4785,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>73.1</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
@@ -4815,39 +4815,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.7</v>
+        <v>20.3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>10.2</v>
+        <v>9.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.3</v>
+        <v>21.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
         <v>1.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.7</v>
+        <v>22.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
         <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.4</v>
+        <v>22.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="H10" t="n">
         <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.8</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -5159,39 +5159,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
@@ -5202,15 +5202,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -5222,19 +5222,19 @@
         <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17">
@@ -5245,39 +5245,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>75.4</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I17" t="n">
         <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
@@ -5292,16 +5292,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5311,7 +5311,7 @@
         <v>9.4</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
         <v>1.7</v>
@@ -5335,16 +5335,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5360,7 +5360,7 @@
         <v>1.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>10.9</v>
+        <v>11.7</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21">
@@ -5421,11 +5421,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5434,13 +5434,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
         <v>1.6</v>
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74.6</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>11.7</v>
+        <v>9.6</v>
       </c>
       <c r="H22" t="n">
         <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J23" t="n">
         <v>1.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K23" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
         <v>10.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.3</v>
+        <v>24.4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="27">
@@ -5675,27 +5675,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="n">
-        <v>11.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
@@ -5704,7 +5704,7 @@
         <v>1.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
         <v>2.5</v>
@@ -5718,39 +5718,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.5</v>
+        <v>27.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G28" t="n">
         <v>10.7</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K28" t="n">
         <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="29">
@@ -5761,39 +5761,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27.3</v>
+        <v>24.7</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>10.8</v>
+        <v>12.3</v>
       </c>
       <c r="H29" t="n">
         <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -5804,36 +5804,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.7</v>
+        <v>23.9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G30" t="n">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="H30" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J30" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K30" t="n">
         <v>2.5</v>
@@ -5855,22 +5855,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>2.9</v>
       </c>
       <c r="G31" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="H31" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I31" t="n">
         <v>1.7</v>
@@ -5970,7 +5970,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -5979,17 +5979,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
         <v>1.4</v>
@@ -5998,7 +5998,7 @@
         <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>15.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
         <v>1.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -6052,36 +6052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.5</v>
+        <v>20.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>74.4</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>15.7</v>
+        <v>14.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
         <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>3.1</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6118,13 +6118,13 @@
         <v>14.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
         <v>1.4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K5" t="n">
         <v>2.9</v>
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.7</v>
+        <v>18.1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.4</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
@@ -6185,26 +6185,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
         <v>14.9</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
         <v>1.3</v>
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
         <v>1.2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18.1</v>
+        <v>19</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G9" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.7</v>
+        <v>19</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>13.8</v>
+        <v>14.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.3</v>
+        <v>20.6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>68.5</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>18.4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="G13" t="n">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.5</v>
+        <v>22.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="G14" t="n">
         <v>13.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.3</v>
-      </c>
       <c r="K14" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.4</v>
       </c>
-      <c r="G15" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="K15" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1.2</v>
       </c>
       <c r="G16" t="n">
-        <v>14.2</v>
+        <v>15.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>69.6</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G17" t="n">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J17" t="n">
         <v>1.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.9</v>
-      </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -6662,31 +6662,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>15.6</v>
+        <v>14.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="19">
@@ -6701,26 +6701,26 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>79.1</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
         <v>1.8</v>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -6757,10 +6757,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="H20" t="n">
         <v>4.1</v>
@@ -6772,7 +6772,7 @@
         <v>1.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="21">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6806,7 +6806,7 @@
         <v>14.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
         <v>1.4</v>
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.7</v>
+        <v>21.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I22" t="n">
         <v>1.5</v>
       </c>
-      <c r="G22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.6</v>
-      </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G23" t="n">
-        <v>14.1</v>
+        <v>15.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J23" t="n">
         <v>1.9</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21.8</v>
+        <v>24.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G24" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -6955,39 +6955,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.7</v>
+        <v>23.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>14.2</v>
+        <v>15.6</v>
       </c>
       <c r="H25" t="n">
         <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
@@ -6998,39 +6998,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.1</v>
+        <v>21.3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G26" t="n">
-        <v>15.4</v>
+        <v>14.2</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K26" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="27">
@@ -7041,36 +7041,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21.3</v>
+        <v>23</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G27" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
         <v>2.2</v>
@@ -7088,32 +7088,32 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>71.5</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
         <v>1.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K28" t="n">
         <v>2.7</v>
@@ -7131,23 +7131,23 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>74.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G29" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="H29" t="n">
         <v>4.4</v>
@@ -7174,11 +7174,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7190,7 +7190,7 @@
         <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="H30" t="n">
         <v>4.5</v>
@@ -7217,26 +7217,26 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>1.3</v>
       </c>
       <c r="G31" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
         <v>1.8</v>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -528,7 +528,7 @@
         <v>8.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
@@ -545,39 +545,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.2</v>
+        <v>21.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="4">
@@ -588,39 +588,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -678,23 +678,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H6" t="n">
         <v>9.1</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -912,7 +912,7 @@
         <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>1.8</v>
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.4</v>
+        <v>23.2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="15">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>81.9</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2.9</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>9.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="G19" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
         <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="H20" t="n">
         <v>8.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1327,31 +1327,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="22">
@@ -1362,39 +1362,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H22" t="n">
-        <v>9.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J22" t="n">
         <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G23" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H23" t="n">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="24">
@@ -1452,26 +1452,26 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H24" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="I24" t="n">
         <v>1.9</v>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1517,7 +1517,7 @@
         <v>8.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
         <v>0.6</v>
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25.7</v>
+        <v>24.6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>86.4</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G26" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27">
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.6</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
         <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
         <v>6.4</v>
@@ -1894,13 +1894,13 @@
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3">
@@ -1911,39 +1911,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.4</v>
+        <v>23.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
         <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="n">
         <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="H10" t="n">
         <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2263,31 +2263,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H11" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2306,31 +2306,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H13" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="14">
@@ -2384,39 +2384,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.1</v>
+        <v>23.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.3</v>
+        <v>22.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H16" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="17">
@@ -2556,39 +2556,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2607,31 +2607,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="G19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H19" t="n">
         <v>5.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -2642,36 +2642,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="K20" t="n">
         <v>2.7</v>
@@ -2685,15 +2685,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="H22" t="n">
         <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.3</v>
+        <v>25</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="G24" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H24" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
         <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H26" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I26" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
         <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
         <v>1.8</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K28" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29">
@@ -3072,39 +3072,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.4</v>
+        <v>26.3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="G30" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="H30" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -3115,39 +3115,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.3</v>
+        <v>24.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="G31" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H31" t="n">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K31" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
@@ -3277,39 +3277,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -3320,39 +3320,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.8</v>
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
@@ -3363,39 +3363,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.2</v>
+        <v>21.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
@@ -3406,39 +3406,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.6</v>
+        <v>21.1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.5</v>
+        <v>22.6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G8" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
         <v>0.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
@@ -3535,39 +3535,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.6</v>
+        <v>20.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.3</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.8</v>
+        <v>22.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>87.3</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12">
@@ -3664,39 +3664,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.8</v>
+        <v>21.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -3750,30 +3750,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
         <v>1.7</v>
@@ -3782,7 +3782,7 @@
         <v>0.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
@@ -3793,39 +3793,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
         <v>0.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16">
@@ -3836,39 +3836,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -3879,39 +3879,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -3969,11 +3969,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
@@ -3994,7 +3994,7 @@
         <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>2.5</v>
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G20" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -4051,39 +4051,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -4266,39 +4266,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.3</v>
+        <v>23.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G26" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
         <v>0.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="27">
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
         <v>0.9</v>
       </c>
       <c r="K27" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="28">
@@ -4352,30 +4352,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H28" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="I28" t="n">
         <v>1.7</v>
@@ -4485,35 +4485,35 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3.3</v>
       </c>
       <c r="G31" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4819,16 +4819,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4838,7 +4838,7 @@
         <v>9.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>1.7</v>
@@ -4866,19 +4866,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.8</v>
+        <v>21.5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
         <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.5</v>
+        <v>22.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
         <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>23.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.8</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>9.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
@@ -5159,39 +5159,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.6</v>
+        <v>21.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J15" t="n">
         <v>1.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.3</v>
-      </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
@@ -5202,36 +5202,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
         <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
         <v>1.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>74.6</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>11.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="21">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>9.6</v>
+        <v>11.8</v>
       </c>
       <c r="H22" t="n">
         <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>10.1</v>
+        <v>11.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
         <v>1.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="25">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5606,10 +5606,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G26" t="n">
-        <v>11.4</v>
+        <v>9.6</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
@@ -5718,39 +5718,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>27.3</v>
+        <v>23.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="J28" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29">
@@ -5804,39 +5804,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23.9</v>
+        <v>27.3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>2.6</v>
       </c>
       <c r="G30" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="H30" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="J30" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -5966,39 +5966,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.6</v>
+        <v>21.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.5</v>
+        <v>19.6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G3" t="n">
-        <v>15.7</v>
+        <v>14.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.2</v>
+        <v>18.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>14.6</v>
+        <v>13.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.1</v>
+        <v>19.6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.7</v>
+        <v>19</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="G8" t="n">
-        <v>13.6</v>
+        <v>12.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>12.9</v>
+        <v>14.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -6318,19 +6318,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G10" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -6342,7 +6342,7 @@
         <v>1.9</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -6357,35 +6357,35 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
         <v>1.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20.6</v>
+        <v>18.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68.5</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="G12" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.4</v>
+        <v>22.4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J13" t="n">
         <v>1.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.3</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.4</v>
+        <v>20.6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>68.5</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -6525,36 +6525,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>12.6</v>
+        <v>14.2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>69.6</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.4</v>
       </c>
-      <c r="G17" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20.9</v>
+        <v>21.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.2</v>
       </c>
-      <c r="G18" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>79.1</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.4</v>
       </c>
-      <c r="G19" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.8</v>
-      </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="20">
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>79.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="G20" t="n">
-        <v>11.6</v>
+        <v>14.7</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>21.2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="22">
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G22" t="n">
-        <v>14.1</v>
+        <v>15.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J22" t="n">
         <v>1.9</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="23">
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="G23" t="n">
-        <v>15.6</v>
+        <v>14.2</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="24">
@@ -7002,16 +7002,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7030,7 +7030,7 @@
         <v>1.8</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="27">
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>24.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="G27" t="n">
-        <v>14.3</v>
+        <v>15.4</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28">
@@ -7084,39 +7084,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>71.5</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="G28" t="n">
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="29">
@@ -7127,39 +7127,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G29" t="n">
         <v>15.4</v>
       </c>
       <c r="H29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30">
@@ -7170,39 +7170,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -592,11 +592,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
         <v>5.6</v>
@@ -614,7 +614,7 @@
         <v>7.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>0.5</v>
@@ -639,12 +639,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -654,7 +654,7 @@
         <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
         <v>1.7</v>
@@ -663,7 +663,7 @@
         <v>0.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -760,30 +760,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.2</v>
+        <v>22.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -792,7 +792,7 @@
         <v>0.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -803,39 +803,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.3</v>
+        <v>23.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10">
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="H10" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
         <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -893,29 +893,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
         <v>0.5</v>
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.4</v>
+        <v>27.1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.2</v>
+        <v>24.1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>23.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="n">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
-        <v>7.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.3</v>
+        <v>24.9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H19" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
         <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
         <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21">
@@ -1319,39 +1319,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G21" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H21" t="n">
-        <v>8.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J21" t="n">
         <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
@@ -1362,39 +1362,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
-        <v>9.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J23" t="n">
         <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24">
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>86.4</t>
+          <t>86.5</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1624,23 +1624,23 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>85.7</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
         <v>7.9</v>
@@ -1663,39 +1663,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26.4</v>
+        <v>24.5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>85.3</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="H29" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I29" t="n">
         <v>2.1</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
@@ -1706,39 +1706,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.4</v>
+        <v>26.6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
         <v>3</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H30" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.8</v>
       </c>
     </row>
     <row r="31">
@@ -1753,23 +1753,23 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86.3</t>
+          <t>86.4</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3.6</v>
       </c>
       <c r="G31" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H31" t="n">
         <v>8.300000000000001</v>
@@ -1778,7 +1778,7 @@
         <v>2.4</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K31" t="n">
         <v>3.1</v>
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1977,13 +1977,13 @@
         <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>81.9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2063,7 +2063,7 @@
         <v>6.8</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
         <v>1.6</v>
@@ -2087,23 +2087,23 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H7" t="n">
         <v>5.5</v>
@@ -2115,7 +2115,7 @@
         <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.8</v>
+        <v>22.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2306,31 +2306,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="13">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2349,31 +2349,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>85.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H15" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J15" t="n">
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.1</v>
+        <v>23.3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.7</v>
+        <v>22</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.3</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H17" t="n">
         <v>5.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
         <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18">
@@ -2556,39 +2556,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H18" t="n">
         <v>5.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H19" t="n">
         <v>5.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20">
@@ -2732,11 +2732,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2745,19 +2745,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G22" t="n">
         <v>7.2</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
         <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K22" t="n">
         <v>2.9</v>
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="G23" t="n">
         <v>6.7</v>
       </c>
       <c r="H23" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="25">
@@ -2904,32 +2904,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H26" t="n">
         <v>5.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
         <v>3.2</v>
@@ -2943,36 +2943,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.1</v>
+        <v>23.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
         <v>2.9</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3238,16 +3238,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.7</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3263,7 +3263,7 @@
         <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K2" t="n">
         <v>3.1</v>
@@ -3367,23 +3367,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.5</v>
+        <v>22.6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -3535,39 +3535,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="11">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.3</t>
+          <t>87.6</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3644,16 +3644,16 @@
         <v>7.7</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
         <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12">
@@ -3711,26 +3711,26 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>7.2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
         <v>1.6</v>
@@ -3739,7 +3739,7 @@
         <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3810,19 +3810,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
         <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
@@ -3836,39 +3836,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17">
@@ -3879,39 +3879,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18">
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -3965,39 +3965,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
         <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21">
@@ -4051,30 +4051,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
         <v>1.5</v>
@@ -4083,7 +4083,7 @@
         <v>0.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="23">
@@ -4137,39 +4137,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.8</v>
+        <v>23.9</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J23" t="n">
         <v>0.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="24">
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.9</v>
+        <v>22</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="25">
@@ -4223,39 +4223,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26.4</v>
+        <v>23.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G25" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
@@ -4266,39 +4266,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.4</v>
+        <v>26.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="27">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4341,7 +4341,7 @@
         <v>0.9</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.3</v>
+        <v>23.4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G28" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J28" t="n">
         <v>0.9</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4395,33 +4395,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="H29" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J29" t="n">
         <v>0.8</v>
@@ -4438,33 +4438,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>84.5</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="n">
         <v>0.8</v>
@@ -4686,39 +4686,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>10.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.6</v>
+        <v>21.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -4776,11 +4776,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4789,7 +4789,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>10.8</v>
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.7</v>
+        <v>22.9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="n">
-        <v>10.7</v>
+        <v>10.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
         <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
         <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>71.8</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="J11" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.3</v>
+        <v>22</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.8</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
         <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14">
@@ -5120,23 +5120,23 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="H14" t="n">
         <v>4.1</v>
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5202,39 +5202,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.6</v>
+        <v>22</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J16" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17">
@@ -5245,39 +5245,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75.4</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
         <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="18">
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>75.4</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
         <v>1.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="21">
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.7</v>
+        <v>22.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J23" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="24">
@@ -5546,27 +5546,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>11.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>4.5</v>
@@ -5575,10 +5575,10 @@
         <v>1.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.4</v>
+        <v>23.1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22.6</v>
+        <v>23</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.7</v>
       </c>
     </row>
     <row r="27">
@@ -5675,39 +5675,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.6</v>
+        <v>24.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G28" t="n">
         <v>10.6</v>
@@ -5750,7 +5750,7 @@
         <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29">
@@ -5761,39 +5761,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.7</v>
+        <v>27.4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K29" t="n">
         <v>2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -5804,39 +5804,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>27.3</v>
+        <v>25.8</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G30" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J30" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -5847,39 +5847,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
       <c r="H31" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -5966,39 +5966,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.5</v>
+        <v>18.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J2" t="n">
         <v>1.3</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.9</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.6</v>
+        <v>21.5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>14.7</v>
+        <v>15.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -6052,36 +6052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.4</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.4</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="H4" t="n">
         <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.1</v>
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.1</v>
+        <v>19.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.6</v>
+        <v>20.5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.8</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>13.7</v>
+        <v>14.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="K6" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.9</v>
+        <v>18.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>14.9</v>
+        <v>13.2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9</v>
+        <v>14.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.2</v>
+        <v>21.9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -6318,31 +6318,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="G10" t="n">
-        <v>14.4</v>
+        <v>13.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.4</v>
+        <v>20.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>67.6</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.4</v>
+        <v>19.6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G13" t="n">
-        <v>13.6</v>
+        <v>14.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>1.2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20.6</v>
+        <v>22.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>68.5</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20.9</v>
+        <v>21.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.2</v>
       </c>
-      <c r="G15" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.8</v>
+        <v>20.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="19">
@@ -6701,16 +6701,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6744,7 +6744,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -6753,17 +6753,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.1</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>1.4</v>
       </c>
       <c r="G20" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
         <v>1.8</v>
@@ -6772,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="21">
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6812,7 +6812,7 @@
         <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.5</v>
+        <v>23.1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>64.5</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="G22" t="n">
-        <v>15.6</v>
+        <v>14.3</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>14.2</v>
+        <v>15.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.7</v>
+        <v>21.6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="G24" t="n">
-        <v>14.5</v>
+        <v>15.9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25">
@@ -6955,39 +6955,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G25" t="n">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26">
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.2</v>
+        <v>23.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="G27" t="n">
-        <v>15.4</v>
+        <v>14.4</v>
       </c>
       <c r="H27" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="28">
@@ -7084,39 +7084,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>24.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="G28" t="n">
-        <v>14.3</v>
+        <v>16.1</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.2</v>
       </c>
     </row>
     <row r="29">
@@ -7127,39 +7127,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>73.6</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G29" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="30">
@@ -7170,39 +7170,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="31">
@@ -7217,23 +7217,23 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>68.6</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>1.3</v>
       </c>
       <c r="G31" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="H31" t="n">
         <v>4.1</v>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -528,13 +528,13 @@
         <v>8.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
@@ -545,39 +545,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.3</v>
+        <v>22.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -588,39 +588,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.3</v>
+        <v>21.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
@@ -721,11 +721,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -740,7 +740,7 @@
         <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>1.8</v>
@@ -807,20 +807,20 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
         <v>6.4</v>
@@ -829,7 +829,7 @@
         <v>7.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J9" t="n">
         <v>0.4</v>
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
         <v>6.7</v>
       </c>
       <c r="H10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J10" t="n">
         <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11">
@@ -889,39 +889,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25.1</v>
+        <v>23.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12">
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H14" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
@@ -1061,20 +1061,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1084,16 +1084,16 @@
         <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="16">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1155,31 +1155,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H17" t="n">
-        <v>9.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1203,26 +1203,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="H18" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.9</v>
+        <v>23.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="H19" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1428,7 +1428,7 @@
         <v>6.6</v>
       </c>
       <c r="H23" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="I23" t="n">
         <v>1.9</v>
@@ -1437,7 +1437,7 @@
         <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25.9</v>
+        <v>24.5</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>86.5</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="26">
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>86.5</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.9</v>
+        <v>26.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
         <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1706,36 +1706,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G30" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I30" t="n">
         <v>2.2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K30" t="n">
         <v>3</v>
@@ -1911,39 +1911,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.4</v>
+        <v>22.6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
         <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J3" t="n">
         <v>0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.7</v>
+        <v>21.9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
         <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
         <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.7</v>
+        <v>23.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82.8</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.8</v>
+        <v>22</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
         <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -2384,39 +2384,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="15">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>85.3</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>85.3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
         <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>23.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="18">
@@ -2646,16 +2646,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2674,7 +2674,7 @@
         <v>0.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3.6</v>
       </c>
       <c r="G22" t="n">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
         <v>6.3</v>
       </c>
       <c r="H25" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3012,7 +3012,7 @@
         <v>5.4</v>
       </c>
       <c r="I28" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J28" t="n">
         <v>0.7</v>
@@ -3033,26 +3033,26 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="H29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I29" t="n">
         <v>2.2</v>
@@ -3061,7 +3061,7 @@
         <v>0.7</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="30">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3410,29 +3410,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
         <v>8.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J6" t="n">
         <v>0.8</v>
@@ -3496,16 +3496,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3582,16 +3582,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3601,7 +3601,7 @@
         <v>8.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.6</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>87.6</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
         <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14">
@@ -3750,39 +3750,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -3844,25 +3844,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>0.6</v>
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3965,39 +3965,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -4016,12 +4016,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4031,7 +4031,7 @@
         <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
         <v>1.6</v>
@@ -4137,39 +4137,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.9</v>
+        <v>22</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="24">
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>23.9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="25">
@@ -4270,16 +4270,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G27" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
         <v>0.9</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="28">
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J28" t="n">
         <v>0.9</v>
       </c>
       <c r="K28" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -4613,14 +4613,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -4647,23 +4647,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -4686,39 +4686,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.6</v>
+        <v>21.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>8.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -4819,16 +4819,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.9</v>
+        <v>22.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>71.8</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
-        <v>10.2</v>
+        <v>9.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
         <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.7</v>
+        <v>22.9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
         <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>9.6</v>
+        <v>10.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.3</v>
+        <v>22.1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>23.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.8</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5202,39 +5202,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>23.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17">
@@ -5245,39 +5245,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
         <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18">
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>75.4</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="H18" t="n">
         <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -5339,31 +5339,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>75.4</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
         <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="20">
@@ -5374,11 +5374,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.4</v>
+        <v>22.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -5387,26 +5387,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="21">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -5425,31 +5425,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J22" t="n">
         <v>1.6</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>9.699999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.1</v>
+        <v>24.2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>11.8</v>
+        <v>10.1</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
@@ -5675,39 +5675,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.2</v>
+        <v>23.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28">
@@ -5966,39 +5966,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.4</v>
+        <v>21.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K2" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -6009,36 +6009,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.1</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G3" t="n">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
         <v>3.1</v>
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>18.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J4" t="n">
         <v>1.4</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.3</v>
-      </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.1</v>
+        <v>18.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18.1</v>
+        <v>19.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G7" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -6253,7 +6253,7 @@
         <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.9</v>
@@ -6271,11 +6271,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -6299,7 +6299,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
@@ -6361,19 +6361,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
@@ -6385,7 +6385,7 @@
         <v>1.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20.8</v>
+        <v>19.6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>67.6</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G12" t="n">
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19.6</v>
+        <v>22.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>14.4</v>
+        <v>13.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
         <v>1.2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.5</v>
+        <v>20.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>67.6</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -6615,23 +6615,23 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>67.2</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1.1</v>
       </c>
       <c r="G17" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
@@ -6658,20 +6658,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G18" t="n">
         <v>14.2</v>
@@ -6683,10 +6683,10 @@
         <v>1.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
@@ -6783,36 +6783,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21.3</v>
+        <v>23.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>64.5</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="G21" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
@@ -6826,36 +6826,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.1</v>
+        <v>21.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>64.5</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>2.3</v>
@@ -6869,11 +6869,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.7</v>
+        <v>21.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -6882,26 +6882,26 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G23" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21.6</v>
+        <v>24.6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="G24" t="n">
-        <v>15.9</v>
+        <v>14.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -6955,39 +6955,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.6</v>
+        <v>23.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
         <v>1.5</v>
       </c>
-      <c r="G25" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="26">
@@ -7006,28 +7006,28 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>1.3</v>
       </c>
       <c r="G26" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K26" t="n">
         <v>2.3</v>
@@ -7084,39 +7084,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>1.3</v>
       </c>
       <c r="G28" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
@@ -7170,39 +7170,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -515,14 +515,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
         <v>8.5</v>
@@ -549,11 +549,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -631,39 +631,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.2</v>
+        <v>22.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.3</v>
+        <v>22.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7">
@@ -717,39 +717,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.9</v>
+        <v>21.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
         <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
         <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -760,39 +760,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.3</v>
+        <v>23.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="9">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         <v>6.4</v>
       </c>
       <c r="H9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
         <v>2.1</v>
@@ -835,7 +835,7 @@
         <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10">
@@ -846,36 +846,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25.1</v>
+        <v>27.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K10" t="n">
         <v>3.5</v>
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H12" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27.1</v>
+        <v>23.3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14">
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G17" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.9</v>
+        <v>24.2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="H19" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J20" t="n">
         <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -1319,39 +1319,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22">
@@ -1362,39 +1362,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H22" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J22" t="n">
         <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G23" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H23" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K24" t="n">
         <v>3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="25">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.5</v>
+        <v>25.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>86.5</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="I25" t="n">
         <v>1.9</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="26">
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>86.5</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>7.9</v>
+        <v>9.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>86.1</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
         <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="29">
@@ -1663,39 +1663,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>85.3</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K29" t="n">
         <v>3</v>
-      </c>
-      <c r="G29" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.8</v>
       </c>
     </row>
     <row r="30">
@@ -1706,39 +1706,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26.1</v>
+        <v>24.5</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>85.3</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="H30" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="I30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J30" t="n">
         <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="31">
@@ -1753,26 +1753,26 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86.4</t>
+          <t>86.2</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G31" t="n">
         <v>6.3</v>
       </c>
       <c r="H31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I31" t="n">
         <v>2.4</v>
@@ -1872,16 +1872,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1894,7 +1894,7 @@
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
@@ -1911,39 +1911,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.6</v>
+        <v>21.7</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
         <v>0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.2</v>
+        <v>22.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.9</v>
+        <v>21.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="n">
         <v>0.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
@@ -2220,16 +2220,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
         <v>6.3</v>
@@ -2244,7 +2244,7 @@
         <v>0.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H11" t="n">
         <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
         <v>6.5</v>
       </c>
       <c r="H12" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -2345,16 +2345,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2370,7 +2370,7 @@
         <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
@@ -2384,39 +2384,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.8</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H14" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.6</v>
+        <v>22.9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.3</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H16" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
         <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17">
@@ -2513,15 +2513,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2530,22 +2530,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
@@ -2560,20 +2560,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G18" t="n">
         <v>6.4</v>
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H19" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="20">
@@ -2642,15 +2642,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.6</v>
+        <v>24.5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2662,19 +2662,19 @@
         <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="H20" t="n">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
         <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
         <v>0.7</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3.6</v>
       </c>
       <c r="G22" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K22" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="G24" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H24" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="J25" t="n">
         <v>0.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="26">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28">
@@ -2986,36 +2986,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>82.8</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="H28" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="I28" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K28" t="n">
         <v>2.6</v>
@@ -3119,16 +3119,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3138,7 +3138,7 @@
         <v>7.2</v>
       </c>
       <c r="H31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I31" t="n">
         <v>1.9</v>
@@ -3234,39 +3234,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -3277,39 +3277,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.9</v>
+        <v>22.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3349,7 +3349,7 @@
         <v>1.2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3395,7 +3395,7 @@
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
@@ -3414,12 +3414,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3432,7 +3432,7 @@
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
         <v>0.8</v>
@@ -3453,11 +3453,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
         <v>7.6</v>
@@ -3481,7 +3481,7 @@
         <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.9</v>
+        <v>21</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9">
@@ -3535,36 +3535,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.7</v>
+        <v>23.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G9" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.8</v>
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>22.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>87.7</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.5</v>
+        <v>20.7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
@@ -3664,39 +3664,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13">
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.6</v>
+        <v>21.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.6</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
         <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -3754,11 +3754,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3773,7 +3773,7 @@
         <v>7.2</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
         <v>1.6</v>
@@ -3797,29 +3797,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>75.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="H15" t="n">
         <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>0.7</v>
@@ -3836,39 +3836,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
         <v>6.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
@@ -3879,39 +3879,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
         <v>6.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.8</v>
+        <v>22.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
@@ -3969,23 +3969,23 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.8</v>
+        <v>23.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="21">
@@ -4051,33 +4051,33 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G21" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
         <v>0.8</v>
@@ -4094,30 +4094,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.7</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
         <v>1.7</v>
@@ -4126,7 +4126,7 @@
         <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
@@ -4137,39 +4137,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="G23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>77.7</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H24" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
         <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4223,39 +4223,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.8</v>
+        <v>22</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -4266,39 +4266,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26.3</v>
+        <v>23.9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="27">
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.4</v>
+        <v>26.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="28">
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G28" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="H28" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J28" t="n">
         <v>0.9</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4399,16 +4399,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4421,7 +4421,7 @@
         <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
         <v>0.8</v>
@@ -4442,23 +4442,23 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.5</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H30" t="n">
         <v>4.8</v>
@@ -4485,23 +4485,23 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3.3</v>
       </c>
       <c r="G31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H31" t="n">
         <v>4.7</v>
@@ -4608,12 +4608,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>70.3</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -4626,13 +4626,13 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
         <v>0.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -4647,23 +4647,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -4675,7 +4675,7 @@
         <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4686,11 +4686,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -4699,26 +4699,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4776,23 +4776,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -4828,26 +4828,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
         <v>1.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.1</v>
+        <v>22.9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="n">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
         <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.9</v>
+        <v>22.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
         <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4991,11 +4991,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5007,7 +5007,7 @@
         <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5019,7 +5019,7 @@
         <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
@@ -5034,23 +5034,23 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
@@ -5120,35 +5120,35 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="H14" t="n">
         <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="15">
@@ -5163,23 +5163,23 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -5202,39 +5202,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>75.4</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J16" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="17">
@@ -5245,36 +5245,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J17" t="n">
         <v>1.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.2</v>
       </c>
       <c r="K17" t="n">
         <v>2.7</v>
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75.4</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>10.9</v>
+        <v>9.4</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>74.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22.6</v>
+        <v>23.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23">
@@ -5507,23 +5507,23 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>4.4</v>
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.2</v>
+        <v>23.1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>10.1</v>
+        <v>11.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G26" t="n">
-        <v>11.4</v>
+        <v>9.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
@@ -5695,13 +5695,13 @@
         <v>2.5</v>
       </c>
       <c r="G27" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
         <v>1.1</v>
@@ -5722,11 +5722,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5738,16 +5738,16 @@
         <v>2.7</v>
       </c>
       <c r="G28" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
         <v>1.9</v>
       </c>
       <c r="J28" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K28" t="n">
         <v>2.6</v>
@@ -5808,11 +5808,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5824,7 +5824,7 @@
         <v>2.9</v>
       </c>
       <c r="G30" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="H30" t="n">
         <v>5.4</v>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J31" t="n">
         <v>1.1</v>
@@ -5970,7 +5970,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -5979,17 +5979,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.1</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G2" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
         <v>1.3</v>
@@ -6013,16 +6013,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>73.1</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -6032,7 +6032,7 @@
         <v>14.6</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
         <v>1.4</v>
@@ -6041,7 +6041,7 @@
         <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.1</v>
+        <v>19.5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.2</v>
       </c>
-      <c r="G5" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.7</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.5</v>
+        <v>18.1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74.6</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>14.5</v>
+        <v>13.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.1</v>
+        <v>20.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>74.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>12.9</v>
+        <v>14.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -6244,10 +6244,10 @@
         <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
         <v>1.4</v>
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.8</v>
+        <v>19.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.4</v>
       </c>
-      <c r="G9" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1.3</v>
       </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.6</v>
+        <v>21.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>71.8</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1.4</v>
       </c>
       <c r="G10" t="n">
-        <v>13.7</v>
+        <v>14.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="11">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G11" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="n">
         <v>1.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.6</v>
+        <v>20.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.5</v>
+        <v>18.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G13" t="n">
-        <v>13.7</v>
+        <v>14.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20.8</v>
+        <v>22.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>67.6</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.9</v>
+        <v>20.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>13.5</v>
+        <v>15.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
         <v>1.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="K15" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.7</v>
+        <v>21.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>15.5</v>
+        <v>13.6</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
         <v>1.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="17">
@@ -6615,7 +6615,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -6628,13 +6628,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>1.4</v>
@@ -6662,19 +6662,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.3</v>
       </c>
       <c r="G18" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
         <v>4.6</v>
@@ -6686,7 +6686,7 @@
         <v>1.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="19">
@@ -6701,11 +6701,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -6717,10 +6717,10 @@
         <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>1.4</v>
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21.9</v>
+        <v>22.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.4</v>
       </c>
-      <c r="G20" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.8</v>
-      </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.1</v>
+        <v>21.9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>64.5</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G21" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="22">
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G22" t="n">
-        <v>14.1</v>
+        <v>15.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21.6</v>
+        <v>24.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="G23" t="n">
-        <v>15.9</v>
+        <v>14.4</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.6</v>
+        <v>21.2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="G24" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
         <v>1.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="25">
@@ -6959,23 +6959,23 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>71.5</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="H25" t="n">
         <v>4.4</v>
@@ -6984,10 +6984,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
@@ -7006,12 +7006,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7027,7 +7027,7 @@
         <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K26" t="n">
         <v>2.3</v>
@@ -7045,20 +7045,20 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>68.8</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G27" t="n">
         <v>14.4</v>
@@ -7073,7 +7073,7 @@
         <v>2.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="28">
@@ -7131,23 +7131,23 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>73.6</t>
+          <t>73.8</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G29" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="H29" t="n">
         <v>4.3</v>
@@ -7174,16 +7174,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7217,16 +7217,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>68.4</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7245,7 +7245,7 @@
         <v>2.3</v>
       </c>
       <c r="K31" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -611,7 +611,7 @@
         <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.8</v>
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.9</v>
+        <v>21.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -717,39 +717,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.4</v>
+        <v>22.9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8">
@@ -889,39 +889,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.2</v>
+        <v>24.5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H13" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="17">
@@ -1147,36 +1147,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
         <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="19">
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.8</v>
+        <v>23.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="H19" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="H20" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="I20" t="n">
         <v>1.9</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21">
@@ -1319,39 +1319,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>9.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.3</v>
+        <v>26</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
         <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>24.3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="G24" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H24" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>86.5</t>
+          <t>85.6</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
-        <v>9.1</v>
+        <v>7.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>86.5</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
         <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.9</v>
+        <v>26.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>86.1</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="H28" t="n">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
         <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1663,36 +1663,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -1753,26 +1753,26 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86.2</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G31" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I31" t="n">
         <v>2.4</v>
@@ -1781,7 +1781,7 @@
         <v>0.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.7</v>
+        <v>21.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.3</v>
+        <v>22.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="H9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
         <v>0.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.6</v>
+        <v>21.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
         <v>6.7</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14">
@@ -2384,39 +2384,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
         <v>6.3</v>
       </c>
       <c r="H14" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J16" t="n">
         <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2521,31 +2521,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K17" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2564,31 +2564,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="19">
@@ -2642,36 +2642,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.5</v>
+        <v>22.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K20" t="n">
         <v>2.4</v>
@@ -2685,36 +2685,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G21" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="H21" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
         <v>2.4</v>
@@ -2779,19 +2779,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2951,31 +2951,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
         <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="28">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2994,31 +2994,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="J28" t="n">
         <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="29">
@@ -3076,16 +3076,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3095,7 +3095,7 @@
         <v>6.7</v>
       </c>
       <c r="H30" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
@@ -3414,19 +3414,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
@@ -3435,7 +3435,7 @@
         <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
@@ -3535,39 +3535,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.2</v>
+        <v>22.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>87.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
         <v>1.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.6</v>
+        <v>20.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.7</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
         <v>7.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.7</v>
+        <v>23.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
@@ -3797,11 +3797,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4137,39 +4137,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.4</v>
+        <v>22.2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24">
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>77.7</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="G24" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="H24" t="n">
         <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J24" t="n">
         <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25">
@@ -4223,39 +4223,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>23.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="26">
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K28" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29">
@@ -4395,39 +4395,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.3</v>
+        <v>23.4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="30">
@@ -4604,29 +4604,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.3</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J2" t="n">
         <v>0.8</v>
@@ -4686,11 +4686,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -4699,26 +4699,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>8.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4729,11 +4729,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.6</v>
+        <v>20.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -4742,26 +4742,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.9</v>
+        <v>21.9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>10.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
         <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.7</v>
+        <v>22.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
         <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.4</v>
+        <v>21.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>9.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
         <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="14">
@@ -5116,33 +5116,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>10.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="J14" t="n">
         <v>1.1</v>
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.6</v>
+        <v>22.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="21">
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.1</v>
+        <v>22.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>74.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
         <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="H24" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -5655,7 +5655,7 @@
         <v>9.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
         <v>1.8</v>
@@ -5812,22 +5812,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>2.9</v>
       </c>
       <c r="G30" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="H30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I30" t="n">
         <v>1.7</v>
@@ -5836,7 +5836,7 @@
         <v>1.6</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="31">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.4</v>
+        <v>18.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0.7</v>
       </c>
       <c r="G3" t="n">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J3" t="n">
         <v>1.4</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.3</v>
-      </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.4</v>
+        <v>19.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>73.1</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>13.7</v>
+        <v>14.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.5</v>
+        <v>18.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -6138,36 +6138,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.1</v>
+        <v>20.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>74.4</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K6" t="n">
         <v>3.2</v>
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.8</v>
+        <v>19.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.4</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.2</v>
       </c>
-      <c r="G7" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.2</v>
+        <v>21.8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>14.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.8</v>
+        <v>19.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1.4</v>
       </c>
       <c r="G10" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -6353,33 +6353,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J11" t="n">
         <v>1.9</v>
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20.8</v>
+        <v>19.2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.4</v>
       </c>
-      <c r="G12" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>1.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>2.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.7</v>
+        <v>20.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.3</v>
       </c>
-      <c r="G13" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.4</v>
+        <v>20.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>67.2</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.4</v>
       </c>
-      <c r="G14" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.2</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G15" t="n">
-        <v>15.4</v>
+        <v>13.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>1.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.8</v>
+        <v>20.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G16" t="n">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
         <v>1.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="K16" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
@@ -6611,33 +6611,33 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>67.2</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G17" t="n">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.9</v>
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="19">
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.8</v>
+        <v>21.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G20" t="n">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G21" t="n">
-        <v>14.8</v>
+        <v>15.9</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
       </c>
       <c r="I21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J21" t="n">
         <v>1.8</v>
       </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
       <c r="K21" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G22" t="n">
-        <v>15.9</v>
+        <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
@@ -6869,39 +6869,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.6</v>
+        <v>23</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>65.1</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G23" t="n">
         <v>14.4</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="24">
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21.2</v>
+        <v>24.6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="G24" t="n">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="G27" t="n">
-        <v>14.4</v>
+        <v>15.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28">
@@ -7084,39 +7084,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>15.5</v>
+        <v>14.4</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="29">

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.4</v>
+        <v>22.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7">
@@ -717,39 +717,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.9</v>
+        <v>21.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -846,39 +846,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27.1</v>
+        <v>23.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H10" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="11">
@@ -889,39 +889,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24.5</v>
+        <v>27.1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I11" t="n">
         <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
         <v>6.7</v>
       </c>
       <c r="H12" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.2</v>
+        <v>25.4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
         <v>8.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="14">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="I14" t="n">
         <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
         <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -1104,36 +1104,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K16" t="n">
         <v>3.6</v>
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18">
@@ -1190,36 +1190,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
@@ -1233,39 +1233,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G19" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="H19" t="n">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20">
@@ -1405,39 +1405,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>24.3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="G23" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H23" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
         <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.3</v>
+        <v>26</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.3</v>
+        <v>22.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.7</v>
+        <v>21.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
         <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="n">
         <v>0.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2306,31 +2306,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2392,19 +2392,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
         <v>5.2</v>
@@ -2416,7 +2416,7 @@
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="15">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H15" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I15" t="n">
         <v>1.8</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16">
@@ -2603,23 +2603,23 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H19" t="n">
         <v>6.1</v>
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.6</v>
+        <v>25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I24" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2951,31 +2951,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
         <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2994,31 +2994,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I28" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
         <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29">
@@ -3037,19 +3037,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>78.9</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H29" t="n">
         <v>5.5</v>
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
         <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
@@ -3664,39 +3664,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.4</v>
+        <v>21.7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14">
@@ -4223,39 +4223,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.6</v>
+        <v>26.3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="H25" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>26.3</v>
+        <v>23.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="28">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.7</v>
+        <v>22.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
         <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>9.6</v>
+        <v>10.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.9</v>
+        <v>21.5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.5</v>
+        <v>22.9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="G12" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.3</v>
+        <v>23.4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>10.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="J13" t="n">
         <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.4</v>
+        <v>22.3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>9.699999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="J14" t="n">
         <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.6</v>
+        <v>22.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
-        <v>10.2</v>
+        <v>9.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>74.2</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
         <v>1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="H23" t="n">
         <v>4.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.4</v>
+        <v>19.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>73.1</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0.7</v>
       </c>
       <c r="G3" t="n">
-        <v>13.7</v>
+        <v>14.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.4</v>
+        <v>18.2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J4" t="n">
         <v>1.4</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.3</v>
-      </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.8</v>
+        <v>20.8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>14.8</v>
+        <v>13.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
         <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G10" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.7</v>
+        <v>21.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.3</v>
       </c>
-      <c r="G11" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J11" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G12" t="n">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.8</v>
+        <v>19.2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.4</v>
       </c>
-      <c r="G13" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>1.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>2.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20.8</v>
+        <v>22.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>67.2</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.2</v>
       </c>
-      <c r="G14" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.4</v>
+        <v>20.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
         <v>1.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G16" t="n">
-        <v>15.4</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17">
@@ -6611,33 +6611,33 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>67.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>12.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
         <v>1.9</v>
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="G27" t="n">
-        <v>15.5</v>
+        <v>14.4</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="28">
@@ -7084,39 +7084,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="G28" t="n">
-        <v>14.4</v>
+        <v>15.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
         <v>1.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -502,39 +502,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.9</v>
+        <v>22.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="3">
@@ -545,11 +545,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.1</v>
+        <v>21.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -558,26 +558,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
@@ -588,39 +588,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.3</v>
+        <v>22.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -631,39 +631,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.9</v>
+        <v>22.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="7">
@@ -764,26 +764,26 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="I8" t="n">
         <v>1.8</v>
@@ -807,29 +807,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.1</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0.4</v>
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.5</v>
+        <v>23.1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13">
@@ -1018,39 +1018,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.3</v>
+        <v>24.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H14" t="n">
-        <v>9.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>77.8</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.8</v>
+        <v>23.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="G20" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H20" t="n">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
         <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="21">
@@ -1366,11 +1366,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1394,7 +1394,7 @@
         <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1495,16 +1495,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1514,7 +1514,7 @@
         <v>5.8</v>
       </c>
       <c r="H25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="I25" t="n">
         <v>1.9</v>
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>85.6</t>
+          <t>86.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>7.9</v>
+        <v>9.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27">
@@ -1577,39 +1577,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.5</t>
+          <t>85.6</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="H27" t="n">
-        <v>9.1</v>
+        <v>7.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26.2</v>
+        <v>25.1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="29">
@@ -1663,36 +1663,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -1911,39 +1911,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
         <v>0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.7</v>
+        <v>21.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.3</v>
+        <v>22.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2048,31 +2048,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
         <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -2169,30 +2169,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
         <v>1.5</v>
@@ -2201,7 +2201,7 @@
         <v>0.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10">
@@ -2225,11 +2225,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
         <v>6.3</v>
@@ -2244,7 +2244,7 @@
         <v>0.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11">
@@ -2255,39 +2255,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
         <v>0.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -2298,39 +2298,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2349,31 +2349,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="14">
@@ -2388,7 +2388,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
@@ -2427,36 +2427,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H15" t="n">
         <v>5.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
         <v>3.2</v>
@@ -2470,36 +2470,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H16" t="n">
         <v>5.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.2</v>
@@ -2513,30 +2513,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.6</v>
+        <v>21.7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H17" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I17" t="n">
         <v>1.8</v>
@@ -2545,7 +2545,7 @@
         <v>0.7</v>
       </c>
       <c r="K17" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2564,31 +2564,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="G18" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K18" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="H19" t="n">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
         <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G22" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K22" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="G25" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H25" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I25" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="G26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H27" t="n">
         <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28">
@@ -2986,36 +2986,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.9</v>
+        <v>23.1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="H28" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K28" t="n">
         <v>2.6</v>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.8</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3138,16 +3138,16 @@
         <v>7.2</v>
       </c>
       <c r="H31" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I31" t="n">
         <v>1.9</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -3234,39 +3234,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="3">
@@ -3277,39 +3277,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.6</v>
+        <v>23</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
         <v>7.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -3496,11 +3496,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3515,16 +3515,16 @@
         <v>7.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
@@ -3535,39 +3535,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.6</v>
+        <v>21.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.7</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.2</v>
+        <v>22.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>87.7</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
         <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12">
@@ -3664,39 +3664,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13">
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -3750,39 +3750,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.8</v>
+        <v>21.2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
         <v>1.6</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
@@ -3840,11 +3840,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3856,10 +3856,10 @@
         <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
         <v>1.7</v>
@@ -3887,16 +3887,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
         <v>6.9</v>
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.8</v>
+        <v>23.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="19">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3973,31 +3973,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>78.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G19" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.9</v>
+        <v>22.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>80.5</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G20" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4102,22 +4102,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
         <v>1.7</v>
@@ -4126,7 +4126,7 @@
         <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23">
@@ -4137,36 +4137,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.2</v>
+        <v>23.3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G23" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H23" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K23" t="n">
         <v>2.7</v>
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.4</v>
+        <v>22.2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25">
@@ -4223,39 +4223,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26.3</v>
+        <v>23.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G25" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="26">
@@ -4266,39 +4266,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.9</v>
+        <v>26.3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="27">
@@ -4309,39 +4309,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G27" t="n">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
         <v>0.8</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="28">
@@ -4352,39 +4352,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.3</v>
+        <v>23.3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G28" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H28" t="n">
         <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K28" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4395,39 +4395,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.4</v>
+        <v>24.4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>84.5</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
         <v>1.9</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K29" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -4485,11 +4485,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -4501,7 +4501,7 @@
         <v>3.3</v>
       </c>
       <c r="G31" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>4.7</v>
@@ -4510,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
@@ -4656,23 +4656,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -4733,20 +4733,20 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
         <v>8.800000000000001</v>
@@ -4776,16 +4776,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.5</t>
+          <t>73.7</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4795,10 +4795,10 @@
         <v>10.9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
         <v>1.6</v>
@@ -4866,16 +4866,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
         <v>10.1</v>
@@ -4887,10 +4887,10 @@
         <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.2</v>
+        <v>21.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
       </c>
       <c r="G12" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="H12" t="n">
         <v>3.8</v>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5191,7 +5191,7 @@
         <v>1.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -5222,7 +5222,7 @@
         <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="H16" t="n">
         <v>4.3</v>
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72.8</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="19">
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.6</v>
+        <v>22.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>10.1</v>
+        <v>11.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
         <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.6</v>
+        <v>22.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="G20" t="n">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>74.2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
@@ -5460,20 +5460,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5483,16 +5483,16 @@
         <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
         <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>74.7</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="H23" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>11.7</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J24" t="n">
         <v>1.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="25">
@@ -5679,16 +5679,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -5765,16 +5765,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -5784,7 +5784,7 @@
         <v>10.7</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I29" t="n">
         <v>1.4</v>
@@ -5851,35 +5851,35 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="H31" t="n">
         <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
         <v>1.1</v>
       </c>
       <c r="K31" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -5966,39 +5966,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.4</v>
+        <v>19.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>73.1</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6009,36 +6009,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.4</v>
+        <v>21.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G3" t="n">
-        <v>14.6</v>
+        <v>15.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.8</v>
+        <v>19.5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74.4</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.2</v>
       </c>
-      <c r="G6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.4</v>
       </c>
-      <c r="G7" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.2</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.8</v>
+        <v>19.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>13.9</v>
+        <v>14.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="K8" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>74.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18.7</v>
+        <v>21.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.3</v>
       </c>
-      <c r="G10" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="11">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.8</v>
+        <v>19.7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G11" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>14.4</v>
+        <v>13.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="G13" t="n">
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.4</v>
+        <v>20.7</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G15" t="n">
-        <v>15.4</v>
+        <v>13.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>1.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>67.2</t>
+          <t>70.3</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G17" t="n">
-        <v>12.3</v>
+        <v>14.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18">
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>11.5</v>
+        <v>14.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -6748,31 +6748,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>71.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>14.8</v>
+        <v>11.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G21" t="n">
-        <v>15.9</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="22">
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>15.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -7045,11 +7045,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7061,7 +7061,7 @@
         <v>1.7</v>
       </c>
       <c r="G27" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="H27" t="n">
         <v>4.7</v>
@@ -7174,16 +7174,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>72.8</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7199,7 +7199,7 @@
         <v>1.3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="K30" t="n">
         <v>2.6</v>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -510,31 +510,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
         <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -588,7 +588,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -596,31 +596,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
         <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
@@ -717,39 +717,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.4</v>
+        <v>23.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>77.1</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
@@ -760,39 +760,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H8" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -850,11 +850,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -869,7 +869,7 @@
         <v>6.5</v>
       </c>
       <c r="H10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I10" t="n">
         <v>1.9</v>
@@ -878,7 +878,7 @@
         <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="11">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -912,16 +912,16 @@
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
         <v>0.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="12">
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J12" t="n">
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
         <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14">
@@ -1018,33 +1018,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H18" t="n">
         <v>8.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -1233,27 +1233,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="H19" t="n">
         <v>8</v>
@@ -1265,7 +1265,7 @@
         <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20">
@@ -1276,39 +1276,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
@@ -1319,39 +1319,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H21" t="n">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="I21" t="n">
         <v>1.9</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -1362,39 +1362,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="H22" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J22" t="n">
         <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
@@ -1413,19 +1413,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>3.4</v>
       </c>
       <c r="G23" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H23" t="n">
         <v>8.300000000000001</v>
@@ -1437,7 +1437,7 @@
         <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24">
@@ -1448,39 +1448,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="25">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H25" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26">
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.4</v>
+        <v>25.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>86.5</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7</v>
-      </c>
-      <c r="H26" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="27">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1663,39 +1663,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26.2</v>
+        <v>24.4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>86.1</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
         <v>8.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="30">
@@ -1710,11 +1710,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1729,7 +1729,7 @@
         <v>5.6</v>
       </c>
       <c r="H30" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I30" t="n">
         <v>2.1</v>
@@ -1738,7 +1738,7 @@
         <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="31">
@@ -1872,16 +1872,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1894,7 +1894,7 @@
         <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
@@ -1954,39 +1954,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.7</v>
+        <v>22.9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -1997,39 +1997,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>84.9</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.9</v>
+        <v>22.3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
         <v>0.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -2083,39 +2083,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8">
@@ -2126,39 +2126,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
         <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
@@ -2169,30 +2169,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
         <v>1.5</v>
@@ -2201,7 +2201,7 @@
         <v>0.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
@@ -2384,11 +2384,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.8</v>
+        <v>21.9</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2397,26 +2397,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H14" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="15">
@@ -2427,39 +2427,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H15" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -2470,39 +2470,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="H16" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.7</v>
+        <v>23.1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I17" t="n">
         <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="18">
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2599,39 +2599,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20">
@@ -2642,39 +2642,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.9</v>
+        <v>24.4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.4</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="H20" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J20" t="n">
         <v>0.7</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21">
@@ -2685,39 +2685,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>3.5</v>
       </c>
       <c r="G21" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="H21" t="n">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
         <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -2728,39 +2728,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>83.7</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G23" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.9</v>
+        <v>25.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J24" t="n">
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H25" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>23.2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="G26" t="n">
         <v>6.7</v>
       </c>
       <c r="H26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="G27" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="29">
@@ -3033,16 +3033,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78.9</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3052,10 +3052,10 @@
         <v>7.8</v>
       </c>
       <c r="H29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
         <v>0.7</v>
@@ -3080,12 +3080,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3095,7 +3095,7 @@
         <v>6.7</v>
       </c>
       <c r="H30" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
@@ -3104,7 +3104,7 @@
         <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31">
@@ -3119,16 +3119,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3138,13 +3138,13 @@
         <v>7.2</v>
       </c>
       <c r="H31" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
         <v>1.9</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K31" t="n">
         <v>3.2</v>
@@ -3349,7 +3349,7 @@
         <v>1.2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>81.4</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3389,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
         <v>0.6</v>
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.6</v>
+        <v>21.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -3539,23 +3539,23 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
@@ -3567,7 +3567,7 @@
         <v>0.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.6</v>
+        <v>21.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.7</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
         <v>6.7</v>
@@ -3711,11 +3711,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3750,36 +3750,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
@@ -3793,39 +3793,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>75.7</t>
+          <t>87.7</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G15" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="H15" t="n">
         <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="16">
@@ -3836,39 +3836,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
         <v>1.7</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -3922,39 +3922,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.9</v>
+        <v>22.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G18" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3978,14 +3978,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.2</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>2.7</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="H19" t="n">
         <v>4.3</v>
@@ -4008,15 +4008,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.8</v>
+        <v>24</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4025,22 +4025,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="21">
@@ -4055,20 +4055,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>8</v>
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="G22" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
         <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -4137,36 +4137,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G23" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>2.7</v>
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22.2</v>
+        <v>23.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="H24" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="25">
@@ -4231,16 +4231,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
         <v>7.8</v>
@@ -4266,36 +4266,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26.3</v>
+        <v>23.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G26" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I26" t="n">
         <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K26" t="n">
         <v>2.6</v>
@@ -4309,36 +4309,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.8</v>
+        <v>26.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="H27" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
         <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
         <v>2.6</v>
@@ -4395,39 +4395,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.4</v>
+        <v>23.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>84.5</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J29" t="n">
         <v>0.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="30">
@@ -4438,15 +4438,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4455,13 +4455,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
@@ -4485,16 +4485,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>82.5</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4686,39 +4686,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.6</v>
+        <v>20.8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>71.2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4823,19 +4823,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.9</v>
+        <v>23</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>72.6</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J8" t="n">
         <v>1.4</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.3</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -4901,39 +4901,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.6</v>
+        <v>22.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>10.8</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J10" t="n">
         <v>1.3</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
         <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>10.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.4</v>
+        <v>21.6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>9.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14">
@@ -5116,39 +5116,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.3</v>
+        <v>22.9</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>75.4</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
         <v>10.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
@@ -5159,39 +5159,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.6</v>
+        <v>23.4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16">
@@ -5202,36 +5202,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>21.6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>75.4</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>10.8</v>
+        <v>9.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.8</v>
@@ -5245,39 +5245,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>1.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="18">
@@ -5288,39 +5288,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>77.2</t>
+          <t>74.2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -5331,36 +5331,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>11.3</v>
+        <v>9.4</v>
       </c>
       <c r="H19" t="n">
         <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="K19" t="n">
         <v>2.4</v>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -5382,28 +5382,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>72.8</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>9.4</v>
+        <v>11.3</v>
       </c>
       <c r="H20" t="n">
         <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="K20" t="n">
         <v>2.4</v>
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
         <v>1.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>74.9</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -5503,39 +5503,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>74.7</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>11.7</v>
+        <v>10.4</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24">
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="H24" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
         <v>1.6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5597,31 +5597,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="26">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="27">
@@ -5675,39 +5675,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J27" t="n">
         <v>1.6</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.1</v>
-      </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28">
@@ -5718,39 +5718,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.7</v>
+        <v>27.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -5761,39 +5761,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27.2</v>
+        <v>23.7</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K29" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G29" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -5808,20 +5808,20 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G30" t="n">
         <v>10.6</v>
@@ -5855,16 +5855,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>72.4</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
         <v>12.4</v>
@@ -5876,7 +5876,7 @@
         <v>1.8</v>
       </c>
       <c r="J31" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>2.6</v>
@@ -5966,39 +5966,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.4</v>
+        <v>18.1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>14.6</v>
+        <v>13.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
@@ -6009,39 +6009,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.4</v>
+        <v>19.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.6</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>13.7</v>
+        <v>14.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="K4" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.1</v>
+        <v>21.8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>71.6</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>13.2</v>
+        <v>14.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>13.6</v>
+        <v>14.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.7</v>
+        <v>19.7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>67.5</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.4</v>
       </c>
       <c r="J7" t="n">
         <v>1.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.8</v>
+        <v>19.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.4</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G9" t="n">
-        <v>14.6</v>
+        <v>13.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J9" t="n">
         <v>1.3</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.9</v>
-      </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.8</v>
+        <v>20.7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1.4</v>
       </c>
       <c r="G10" t="n">
-        <v>14.8</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.7</v>
+        <v>20.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.5</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G11" t="n">
-        <v>14.4</v>
+        <v>15.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.2</v>
+        <v>22.2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.7</v>
+        <v>21.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.3</v>
       </c>
-      <c r="G13" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>67.8</t>
+          <t>70.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
         <v>1.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="K14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
@@ -6525,39 +6525,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.4</v>
+        <v>18.2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J15" t="n">
         <v>1.4</v>
       </c>
-      <c r="G15" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.5</v>
-      </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1.2</v>
       </c>
       <c r="G16" t="n">
-        <v>15.4</v>
+        <v>12.2</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17">
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70.3</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G17" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
         <v>1.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="18">
@@ -6654,36 +6654,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>13.6</v>
+        <v>15.7</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K18" t="n">
         <v>2.6</v>
@@ -6697,39 +6697,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21.7</v>
+        <v>19.3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="G19" t="n">
         <v>14.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>71.9</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>11.4</v>
+        <v>15.8</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21.3</v>
+        <v>22.1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>11.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J21" t="n">
         <v>1.6</v>
       </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="22">
@@ -6826,39 +6826,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G22" t="n">
-        <v>15.9</v>
+        <v>14.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
         <v>1.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -6869,36 +6869,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>65.1</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
         <v>1.6</v>
       </c>
-      <c r="G23" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
@@ -6955,39 +6955,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>71.5</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G25" t="n">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="26">
@@ -6998,39 +6998,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21.2</v>
+        <v>23.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>71.5</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>14.1</v>
+        <v>15.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="27">
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.2</v>
+        <v>24.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>73.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="G27" t="n">
-        <v>14.3</v>
+        <v>15.6</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="28">
@@ -7084,39 +7084,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>15.3</v>
+        <v>14.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
         <v>1.6</v>
       </c>
       <c r="J28" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="29">
@@ -7127,39 +7127,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>67.9</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>1.3</v>
       </c>
       <c r="G29" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30">
@@ -7174,23 +7174,23 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>73.6</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G30" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="H30" t="n">
         <v>4.4</v>
@@ -7199,7 +7199,7 @@
         <v>1.3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="K30" t="n">
         <v>2.6</v>
@@ -7217,35 +7217,35 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>59.6</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
         <v>1.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K31" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/nba_defense_data.xlsx
+++ b/backend/nba_defense_data.xlsx
@@ -502,39 +502,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
         <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -549,32 +549,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>72.4</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
         <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -588,7 +588,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -596,31 +596,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
         <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -631,39 +631,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -674,39 +674,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7">
@@ -717,39 +717,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H7" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -760,39 +760,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.5</v>
+        <v>23.6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
@@ -807,16 +807,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.1</t>
+          <t>84.2</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -889,36 +889,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26.9</v>
+        <v>25.4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.6</v>
@@ -932,39 +932,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25.4</v>
+        <v>26.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="H12" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +975,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="14">
@@ -1061,39 +1061,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.6</v>
+        <v>23.1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -1104,39 +1104,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.7</v>
+        <v>24.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="H16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>0.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17">
@@ -1147,39 +1147,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G17" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="H18" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
         <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1284,31 +1284,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H20" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J20" t="n">
         <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="21">
@@ -1323,11 +1323,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1351,7 +1351,7 @@
         <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1409,23 +1409,23 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H23" t="n">
         <v>8.300000000000001</v>
@@ -1437,7 +1437,7 @@
         <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1456,31 +1456,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="H24" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="H25" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="26">
@@ -1534,39 +1534,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H26" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
@@ -1581,26 +1581,26 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>85.6</t>
+          <t>85.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
         <v>2.6</v>
@@ -1667,16 +1667,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>86.1</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1686,16 +1686,16 @@
         <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>0.7</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="30">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85.3</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1738,7 +1738,7 @@
         <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="31">
@@ -1919,19 +1919,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.3</t>
+          <t>77.2</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H3" t="n">
         <v>4.9</v>
@@ -1958,26 +1958,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I4" t="n">
         <v>1.6</v>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.9</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2020,7 +2020,7 @@
         <v>6.5</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
         <v>1.4</v>
@@ -2083,30 +2083,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
         <v>1.5</v>
@@ -2115,7 +2115,7 @@
         <v>0.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2134,22 +2134,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
         <v>1.6</v>
@@ -2158,7 +2158,7 @@
         <v>0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
@@ -2169,39 +2169,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
         <v>1.5</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
@@ -2259,11 +2259,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2275,10 +2275,10 @@
         <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
         <v>1.4</v>
@@ -2302,26 +2302,26 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I12" t="n">
         <v>1.4</v>
@@ -2341,39 +2341,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.9</v>
+        <v>21.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
         <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
@@ -2384,30 +2384,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.9</v>
+        <v>23.1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84.3</t>
+          <t>85.2</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
@@ -2416,7 +2416,7 @@
         <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2435,19 +2435,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.4</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H15" t="n">
         <v>5.2</v>
@@ -2459,7 +2459,7 @@
         <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2478,31 +2478,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="17">
@@ -2513,39 +2513,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="H17" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18">
@@ -2556,39 +2556,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H18" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2607,31 +2607,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2655,14 +2655,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>83.8</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
         <v>5.4</v>
@@ -2671,7 +2671,7 @@
         <v>1.4</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
         <v>2.9</v>
@@ -2689,26 +2689,26 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>3.5</v>
       </c>
       <c r="G21" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
         <v>1.7</v>
@@ -2732,26 +2732,26 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3.5</v>
       </c>
       <c r="G22" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H22" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>1.7</v>
@@ -2760,7 +2760,7 @@
         <v>0.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="G23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
         <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2814,39 +2814,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.1</v>
+        <v>23.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I24" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
@@ -2857,39 +2857,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G25" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="26">
@@ -2900,39 +2900,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="G26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
@@ -2943,39 +2943,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>82.8</t>
+          <t>79.4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="H27" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3238,16 +3238,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3263,7 +3263,7 @@
         <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3290,14 +3290,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>75.3</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -3410,16 +3410,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3432,10 +3432,10 @@
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
@@ -3449,39 +3449,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
         <v>7.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
@@ -3492,39 +3492,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.4</v>
+        <v>23</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
@@ -3535,39 +3535,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.5</v>
+        <v>20.6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>79.5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
@@ -3621,39 +3621,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
         <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -3668,26 +3668,26 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>80.3</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>1.7</v>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3715,31 +3715,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -3750,39 +3750,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.8</v>
+        <v>22.7</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>87.7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
         <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="15">
@@ -3793,39 +3793,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.7</v>
+        <v>21.8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.7</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
         <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
@@ -3836,39 +3836,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.7</v>
+        <v>21.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="H16" t="n">
         <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
         <v>0.7</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="17">
@@ -3883,16 +3883,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>83.4</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3902,7 +3902,7 @@
         <v>6.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>2.1</v>
@@ -3926,23 +3926,23 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>80.2</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>2.8</v>
       </c>
       <c r="G18" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
@@ -3965,39 +3965,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.5</t>
+          <t>82.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
         <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="21">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4059,31 +4059,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82.9</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="H22" t="n">
         <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
         <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23">
@@ -4137,36 +4137,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H23" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K23" t="n">
         <v>2.7</v>
@@ -4180,39 +4180,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23.5</v>
+        <v>22.4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="G24" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="H24" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25">
@@ -4223,39 +4223,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G25" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -4266,39 +4266,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>77.3</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="27">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>80.4</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4332,7 +4332,7 @@
         <v>7.2</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
         <v>1.8</v>
@@ -4360,12 +4360,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4381,7 +4381,7 @@
         <v>1.9</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>1.9</v>
@@ -4395,39 +4395,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>83.8</t>
+          <t>84.3</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
         <v>0.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -4438,15 +4438,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4455,22 +4455,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J30" t="n">
         <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -4647,32 +4647,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -4686,39 +4686,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.2</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>8.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4729,39 +4729,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -4776,23 +4776,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.7</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="H6" t="n">
         <v>4.4</v>
@@ -4819,11 +4819,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4835,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
@@ -4858,39 +4858,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>22.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9">
@@ -4905,23 +4905,23 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>72.6</t>
+          <t>76.3</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11">
@@ -4987,39 +4987,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.6</v>
+        <v>23.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.3</t>
+          <t>78.7</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="12">
@@ -5030,39 +5030,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.2</v>
+        <v>21.6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.7</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>9.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.6</v>
+        <v>23</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J13" t="n">
         <v>1.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.8</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -5202,39 +5202,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.6</v>
+        <v>22.7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.2</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17">
@@ -5245,39 +5245,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>10.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18">
@@ -5288,36 +5288,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.5</v>
+        <v>22.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>74.2</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.7</v>
@@ -5331,39 +5331,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.6</v>
+        <v>21.7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>72.8</t>
+          <t>79.1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20">
@@ -5374,39 +5374,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>11.3</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="21">
@@ -5417,39 +5417,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J21" t="n">
         <v>1.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74.9</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G22" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -5503,36 +5503,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="K23" t="n">
         <v>2.7</v>
@@ -5546,39 +5546,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>10.2</v>
+        <v>11.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -5589,39 +5589,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J25" t="n">
         <v>1.6</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.1</v>
-      </c>
       <c r="K25" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="G26" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="27">
@@ -5675,39 +5675,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>79.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G27" t="n">
-        <v>9.5</v>
+        <v>10.2</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="28">
@@ -5718,39 +5718,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>27.2</v>
+        <v>23.7</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>78.3</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -5761,39 +5761,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.7</v>
+        <v>27.3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78.3</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G29" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -5804,39 +5804,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25.9</v>
+        <v>24.6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>72.4</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
       <c r="H30" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31">
@@ -5847,39 +5847,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24.6</v>
+        <v>25.9</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>72.4</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="G31" t="n">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="K31" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
@@ -5974,12 +5974,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -5989,7 +5989,7 @@
         <v>13.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
         <v>1.7</v>
@@ -5998,7 +5998,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
@@ -6052,39 +6052,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.7</v>
+        <v>21.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>71.9</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -6095,39 +6095,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>74.6</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
         <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">
@@ -6138,39 +6138,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>19.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>69.6</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -6181,39 +6181,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.7</v>
+        <v>20.6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.5</t>
+          <t>67.9</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>1.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8">
@@ -6224,39 +6224,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9">
@@ -6267,39 +6267,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G9" t="n">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10">
@@ -6310,39 +6310,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.7</v>
+        <v>19.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67.8</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.4</v>
       </c>
-      <c r="G10" t="n">
-        <v>14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>2.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -6353,39 +6353,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.6</v>
+        <v>22.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.2</v>
       </c>
-      <c r="G11" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J11" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -6396,39 +6396,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.2</v>
+        <v>20.6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.4</v>
       </c>
-      <c r="G12" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.2</v>
-      </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="13">
@@ -6439,39 +6439,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>13.5</v>
+        <v>14.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14">
@@ -6482,39 +6482,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>70.3</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
         <v>1.3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="15">
@@ -6529,26 +6529,26 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0.7</v>
       </c>
       <c r="G15" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>1.6</v>
@@ -6568,39 +6568,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.7</v>
+        <v>21.7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>67.5</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>12.2</v>
+        <v>13.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="17">
@@ -6611,39 +6611,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G17" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.9</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -6654,39 +6654,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.6</v>
+        <v>19.3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75.5</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G18" t="n">
-        <v>15.7</v>
+        <v>14.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -6697,36 +6697,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19.3</v>
+        <v>21.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>14.7</v>
+        <v>15.8</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -6740,39 +6740,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21.6</v>
+        <v>22.1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>15.8</v>
+        <v>11.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="21">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>75.5</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="G21" t="n">
-        <v>11.6</v>
+        <v>15.7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="22">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -6834,31 +6834,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>75.4</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
@@ -6869,36 +6869,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21.3</v>
+        <v>22.9</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="G23" t="n">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
@@ -6912,39 +6912,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24.6</v>
+        <v>21.4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
         <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="25">
@@ -6955,39 +6955,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.9</v>
+        <v>24.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G25" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26">
@@ -7041,39 +7041,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.2</v>
+        <v>23.4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="G27" t="n">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="28">
@@ -7084,39 +7084,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>73.8</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="G28" t="n">
-        <v>14.3</v>
+        <v>15.8</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="29">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>68.6</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7239,7 +7239,7 @@
         <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J31" t="n">
         <v>2.2</v>
